--- a/ThermalExpansionSearch_Oct22.xlsx
+++ b/ThermalExpansionSearch_Oct22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/zxl15_psu_edu/Documents/Projects/DOE-ARPA-E-ULTERA/DOE-ARPA-E-ULTERA-Shared/References/ThermalExpansion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="13_ncr:1_{6F1D3A75-B6F4-4AD1-99D1-D388AC90D454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{767CB51B-A56A-4915-B5EC-ABB231C0E03C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83100D-0EED-1148-A94B-CD5A75B4017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,9 +1029,6 @@
     <t>density</t>
   </si>
   <si>
-    <t>g/cm^3</t>
-  </si>
-  <si>
     <t>BODY</t>
   </si>
   <si>
@@ -1201,6 +1198,9 @@
   </si>
   <si>
     <t>172</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
   </si>
 </sst>
 </file>
@@ -1875,6 +1875,42 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1925,42 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2245,82 +2245,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="35.05078125" customWidth="1"/>
-    <col min="3" max="3" width="17.3671875" customWidth="1"/>
-    <col min="4" max="4" width="17.734375" customWidth="1"/>
-    <col min="5" max="5" width="21.62890625" customWidth="1"/>
-    <col min="6" max="6" width="17.7890625" customWidth="1"/>
-    <col min="7" max="7" width="19.26171875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="16.578125" customWidth="1"/>
-    <col min="10" max="10" width="12.47265625" customWidth="1"/>
-    <col min="11" max="11" width="15.3671875" customWidth="1"/>
-    <col min="12" max="12" width="11.5234375" customWidth="1"/>
-    <col min="13" max="13" width="17.7890625" customWidth="1"/>
-    <col min="14" max="15" width="39.26171875" customWidth="1"/>
-    <col min="16" max="16" width="17.68359375" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="15" width="39.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
     <col min="17" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="17.578125" customWidth="1"/>
-    <col min="20" max="20" width="17.47265625" customWidth="1"/>
+    <col min="19" max="20" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:20" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
       <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2328,75 +2327,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.9" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2439,50 +2438,50 @@
       <c r="N7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="60"/>
+      <c r="O7" s="45"/>
       <c r="P7" s="32" t="s">
         <v>87</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R7" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54" t="s">
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="61" t="s">
+      <c r="P8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
-    </row>
-    <row r="9" spans="1:20" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>59</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="66">
+      <c r="I10" s="40">
         <v>298</v>
       </c>
       <c r="J10" s="39">
@@ -2573,7 +2572,7 @@
         <v>4275851999.9999995</v>
       </c>
       <c r="K10" s="39"/>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="34" t="s">
@@ -2587,7 +2586,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>61</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="34"/>
-      <c r="I11" s="66">
+      <c r="I11" s="40">
         <v>298</v>
       </c>
       <c r="J11" s="39">
@@ -2618,7 +2617,7 @@
         <v>4707360000</v>
       </c>
       <c r="K11" s="39"/>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="42" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="34" t="s">
@@ -2632,7 +2631,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>62</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="66">
+      <c r="I12" s="40">
         <v>298</v>
       </c>
       <c r="J12" s="39">
@@ -2663,7 +2662,7 @@
         <v>4903500000</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="42" t="s">
         <v>46</v>
       </c>
       <c r="M12" s="34" t="s">
@@ -2677,7 +2676,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="34"/>
-      <c r="I13" s="66">
+      <c r="I13" s="40">
         <v>298</v>
       </c>
       <c r="J13" s="39">
@@ -2708,7 +2707,7 @@
         <v>7178724000</v>
       </c>
       <c r="K13" s="39"/>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="42" t="s">
         <v>46</v>
       </c>
       <c r="M13" s="34" t="s">
@@ -2722,7 +2721,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>64</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="66">
+      <c r="I14" s="40">
         <v>298</v>
       </c>
       <c r="J14" s="39">
@@ -2753,7 +2752,7 @@
         <v>7257180000</v>
       </c>
       <c r="K14" s="39"/>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="42" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="34" t="s">
@@ -2767,7 +2766,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>66</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="66">
+      <c r="I15" s="40">
         <v>298</v>
       </c>
       <c r="J15" s="39">
@@ -2798,7 +2797,7 @@
         <v>7306215000</v>
       </c>
       <c r="K15" s="39"/>
-      <c r="L15" s="68" t="s">
+      <c r="L15" s="42" t="s">
         <v>46</v>
       </c>
       <c r="M15" s="34" t="s">
@@ -2812,7 +2811,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2835,14 +2834,14 @@
         <v>19</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="66">
+      <c r="I16" s="40">
         <v>400</v>
       </c>
       <c r="J16" s="39">
         <v>1.73E-5</v>
       </c>
       <c r="K16" s="39"/>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M16" s="34" t="s">
@@ -2853,7 +2852,7 @@
       </c>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>69</v>
       </c>
@@ -2876,14 +2875,14 @@
         <v>19</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="66">
+      <c r="I17" s="40">
         <v>400</v>
       </c>
       <c r="J17" s="39">
         <v>1.6799999999999998E-5</v>
       </c>
       <c r="K17" s="39"/>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M17" s="34" t="s">
@@ -2893,7 +2892,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>70</v>
       </c>
@@ -2916,14 +2915,14 @@
         <v>19</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="66">
+      <c r="I18" s="40">
         <v>400</v>
       </c>
       <c r="J18" s="39">
         <v>1.6699999999999999E-5</v>
       </c>
       <c r="K18" s="39"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M18" s="34" t="s">
@@ -2933,7 +2932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>72</v>
       </c>
@@ -2956,14 +2955,14 @@
         <v>19</v>
       </c>
       <c r="H19" s="34"/>
-      <c r="I19" s="66">
+      <c r="I19" s="40">
         <v>400</v>
       </c>
       <c r="J19" s="39">
         <v>1.22E-5</v>
       </c>
       <c r="K19" s="39"/>
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M19" s="34" t="s">
@@ -2973,7 +2972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>103</v>
       </c>
@@ -2996,14 +2995,14 @@
         <v>19</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="66">
+      <c r="I20" s="40">
         <v>400</v>
       </c>
       <c r="J20" s="39">
         <v>1.1800000000000001E-5</v>
       </c>
       <c r="K20" s="39"/>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M20" s="34" t="s">
@@ -3013,7 +3012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>104</v>
       </c>
@@ -3036,14 +3035,14 @@
         <v>19</v>
       </c>
       <c r="H21" s="34"/>
-      <c r="I21" s="66">
+      <c r="I21" s="40">
         <v>400</v>
       </c>
       <c r="J21" s="39">
         <v>1.13E-5</v>
       </c>
       <c r="K21" s="39"/>
-      <c r="L21" s="68" t="s">
+      <c r="L21" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M21" s="34" t="s">
@@ -3053,7 +3052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>105</v>
       </c>
@@ -3074,14 +3073,14 @@
         <v>96</v>
       </c>
       <c r="H22" s="34"/>
-      <c r="I22" s="66">
+      <c r="I22" s="40">
         <v>300</v>
       </c>
       <c r="J22" s="39">
         <v>2.0800000000000001E-5</v>
       </c>
       <c r="K22" s="39"/>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M22" s="34" t="s">
@@ -3091,7 +3090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>106</v>
       </c>
@@ -3112,14 +3111,14 @@
         <v>96</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="66">
+      <c r="I23" s="40">
         <v>300</v>
       </c>
       <c r="J23" s="39">
         <v>2.23E-5</v>
       </c>
       <c r="K23" s="39"/>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M23" s="34" t="s">
@@ -3129,7 +3128,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>107</v>
       </c>
@@ -3150,14 +3149,14 @@
         <v>96</v>
       </c>
       <c r="H24" s="34"/>
-      <c r="I24" s="66">
+      <c r="I24" s="40">
         <v>300</v>
       </c>
       <c r="J24" s="39">
         <v>2.1100000000000001E-5</v>
       </c>
       <c r="K24" s="39"/>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M24" s="34" t="s">
@@ -3167,7 +3166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>108</v>
       </c>
@@ -3188,14 +3187,14 @@
         <v>96</v>
       </c>
       <c r="H25" s="34"/>
-      <c r="I25" s="66">
+      <c r="I25" s="40">
         <v>1500</v>
       </c>
       <c r="J25" s="39">
         <v>2.5400000000000001E-5</v>
       </c>
       <c r="K25" s="39"/>
-      <c r="L25" s="68" t="s">
+      <c r="L25" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M25" s="34" t="s">
@@ -3205,7 +3204,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>109</v>
       </c>
@@ -3226,14 +3225,14 @@
         <v>96</v>
       </c>
       <c r="H26" s="34"/>
-      <c r="I26" s="66">
+      <c r="I26" s="40">
         <v>1500</v>
       </c>
       <c r="J26" s="39">
         <v>2.62E-5</v>
       </c>
       <c r="K26" s="39"/>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M26" s="34" t="s">
@@ -3243,7 +3242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>110</v>
       </c>
@@ -3264,14 +3263,14 @@
         <v>96</v>
       </c>
       <c r="H27" s="34"/>
-      <c r="I27" s="66">
+      <c r="I27" s="40">
         <v>1500</v>
       </c>
       <c r="J27" s="39">
         <v>2.6699999999999998E-5</v>
       </c>
       <c r="K27" s="39"/>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M27" s="34" t="s">
@@ -3281,7 +3280,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>111</v>
       </c>
@@ -3304,14 +3303,14 @@
         <v>19</v>
       </c>
       <c r="H28" s="34"/>
-      <c r="I28" s="66">
+      <c r="I28" s="40">
         <v>500</v>
       </c>
       <c r="J28" s="39">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="K28" s="39"/>
-      <c r="L28" s="68" t="s">
+      <c r="L28" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M28" s="34" t="s">
@@ -3321,7 +3320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>112</v>
       </c>
@@ -3344,14 +3343,14 @@
         <v>19</v>
       </c>
       <c r="H29" s="34"/>
-      <c r="I29" s="66">
+      <c r="I29" s="40">
         <v>900</v>
       </c>
       <c r="J29" s="39">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="K29" s="39"/>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M29" s="34" t="s">
@@ -3361,7 +3360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>113</v>
       </c>
@@ -3384,14 +3383,14 @@
         <v>19</v>
       </c>
       <c r="H30" s="34"/>
-      <c r="I30" s="66">
+      <c r="I30" s="40">
         <v>500</v>
       </c>
       <c r="J30" s="39">
         <v>1.63E-5</v>
       </c>
       <c r="K30" s="39"/>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M30" s="34" t="s">
@@ -3401,7 +3400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>121</v>
       </c>
@@ -3422,14 +3421,14 @@
         <v>19</v>
       </c>
       <c r="H31" s="34"/>
-      <c r="I31" s="66">
+      <c r="I31" s="40">
         <v>200</v>
       </c>
       <c r="J31" s="39">
         <v>1.1399999999999999E-5</v>
       </c>
       <c r="K31" s="39"/>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M31" s="34" t="s">
@@ -3439,7 +3438,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>122</v>
       </c>
@@ -3460,14 +3459,14 @@
         <v>19</v>
       </c>
       <c r="H32" s="34"/>
-      <c r="I32" s="66">
+      <c r="I32" s="40">
         <v>200</v>
       </c>
       <c r="J32" s="39">
         <v>1.1800000000000001E-5</v>
       </c>
       <c r="K32" s="39"/>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M32" s="34" t="s">
@@ -3477,7 +3476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>123</v>
       </c>
@@ -3498,14 +3497,14 @@
         <v>19</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="66">
+      <c r="I33" s="40">
         <v>200</v>
       </c>
       <c r="J33" s="39">
         <v>1.15E-5</v>
       </c>
       <c r="K33" s="39"/>
-      <c r="L33" s="68" t="s">
+      <c r="L33" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M33" s="34" t="s">
@@ -3515,7 +3514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>124</v>
       </c>
@@ -3536,14 +3535,14 @@
         <v>19</v>
       </c>
       <c r="H34" s="34"/>
-      <c r="I34" s="66">
+      <c r="I34" s="40">
         <v>500</v>
       </c>
       <c r="J34" s="39">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="K34" s="39"/>
-      <c r="L34" s="68" t="s">
+      <c r="L34" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M34" s="34" t="s">
@@ -3553,7 +3552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>125</v>
       </c>
@@ -3574,14 +3573,14 @@
         <v>19</v>
       </c>
       <c r="H35" s="34"/>
-      <c r="I35" s="66">
+      <c r="I35" s="40">
         <v>500</v>
       </c>
       <c r="J35" s="33">
         <v>1.45E-5</v>
       </c>
       <c r="K35" s="33"/>
-      <c r="L35" s="68" t="s">
+      <c r="L35" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M35" s="34" t="s">
@@ -3591,7 +3590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>126</v>
       </c>
@@ -3612,14 +3611,14 @@
         <v>19</v>
       </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="66">
+      <c r="I36" s="40">
         <v>500</v>
       </c>
       <c r="J36" s="33">
         <v>1.45E-5</v>
       </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="68" t="s">
+      <c r="L36" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M36" s="34" t="s">
@@ -3629,7 +3628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>157</v>
       </c>
@@ -3650,14 +3649,14 @@
         <v>96</v>
       </c>
       <c r="H37" s="34"/>
-      <c r="I37" s="66">
+      <c r="I37" s="40">
         <v>300</v>
       </c>
       <c r="J37" s="33">
         <v>9.6399999999999992E-6</v>
       </c>
       <c r="K37" s="33"/>
-      <c r="L37" s="68" t="s">
+      <c r="L37" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M37" s="34" t="s">
@@ -3667,7 +3666,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>158</v>
       </c>
@@ -3688,14 +3687,14 @@
         <v>96</v>
       </c>
       <c r="H38" s="34"/>
-      <c r="I38" s="66">
+      <c r="I38" s="40">
         <v>300</v>
       </c>
       <c r="J38" s="33">
         <v>9.3500000000000003E-6</v>
       </c>
       <c r="K38" s="33"/>
-      <c r="L38" s="68" t="s">
+      <c r="L38" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M38" s="34" t="s">
@@ -3705,7 +3704,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>159</v>
       </c>
@@ -3726,14 +3725,14 @@
         <v>96</v>
       </c>
       <c r="H39" s="34"/>
-      <c r="I39" s="66">
+      <c r="I39" s="40">
         <v>300</v>
       </c>
       <c r="J39" s="33">
         <v>8.2500000000000006E-6</v>
       </c>
       <c r="K39" s="33"/>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M39" s="34" t="s">
@@ -3743,7 +3742,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>160</v>
       </c>
@@ -3764,14 +3763,14 @@
         <v>96</v>
       </c>
       <c r="H40" s="34"/>
-      <c r="I40" s="66">
+      <c r="I40" s="40">
         <v>300</v>
       </c>
       <c r="J40" s="33">
         <v>7.5100000000000001E-6</v>
       </c>
       <c r="K40" s="33"/>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M40" s="34" t="s">
@@ -3781,7 +3780,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>161</v>
       </c>
@@ -3802,14 +3801,14 @@
         <v>96</v>
       </c>
       <c r="H41" s="34"/>
-      <c r="I41" s="66">
+      <c r="I41" s="40">
         <v>300</v>
       </c>
       <c r="J41" s="33">
         <v>7.4399999999999999E-6</v>
       </c>
       <c r="K41" s="33"/>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M41" s="34" t="s">
@@ -3819,7 +3818,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>162</v>
       </c>
@@ -3840,14 +3839,14 @@
         <v>96</v>
       </c>
       <c r="H42" s="34"/>
-      <c r="I42" s="66">
+      <c r="I42" s="40">
         <v>300</v>
       </c>
       <c r="J42" s="33">
         <v>7.1600000000000001E-6</v>
       </c>
       <c r="K42" s="33"/>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M42" s="34" t="s">
@@ -3857,7 +3856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>163</v>
       </c>
@@ -3878,14 +3877,14 @@
         <v>96</v>
       </c>
       <c r="H43" s="34"/>
-      <c r="I43" s="66">
+      <c r="I43" s="40">
         <v>300</v>
       </c>
       <c r="J43" s="33">
         <v>7.1199999999999996E-6</v>
       </c>
       <c r="K43" s="33"/>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M43" s="34" t="s">
@@ -3895,7 +3894,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>164</v>
       </c>
@@ -3916,14 +3915,14 @@
         <v>96</v>
       </c>
       <c r="H44" s="34"/>
-      <c r="I44" s="66">
+      <c r="I44" s="40">
         <v>300</v>
       </c>
       <c r="J44" s="33">
         <v>7.0400000000000004E-6</v>
       </c>
       <c r="K44" s="33"/>
-      <c r="L44" s="68" t="s">
+      <c r="L44" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M44" s="34" t="s">
@@ -3933,7 +3932,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>165</v>
       </c>
@@ -3954,14 +3953,14 @@
         <v>96</v>
       </c>
       <c r="H45" s="34"/>
-      <c r="I45" s="66">
+      <c r="I45" s="40">
         <v>300</v>
       </c>
       <c r="J45" s="33">
         <v>6.9800000000000001E-6</v>
       </c>
       <c r="K45" s="33"/>
-      <c r="L45" s="68" t="s">
+      <c r="L45" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M45" s="34" t="s">
@@ -3971,7 +3970,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>166</v>
       </c>
@@ -3992,14 +3991,14 @@
         <v>96</v>
       </c>
       <c r="H46" s="34"/>
-      <c r="I46" s="66">
+      <c r="I46" s="40">
         <v>300</v>
       </c>
       <c r="J46" s="33">
         <v>6.9099999999999999E-6</v>
       </c>
       <c r="K46" s="33"/>
-      <c r="L46" s="68" t="s">
+      <c r="L46" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M46" s="34" t="s">
@@ -4009,7 +4008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>167</v>
       </c>
@@ -4030,14 +4029,14 @@
         <v>96</v>
       </c>
       <c r="H47" s="34"/>
-      <c r="I47" s="66">
+      <c r="I47" s="40">
         <v>300</v>
       </c>
       <c r="J47" s="33">
         <v>6.7900000000000002E-6</v>
       </c>
       <c r="K47" s="33"/>
-      <c r="L47" s="68" t="s">
+      <c r="L47" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M47" s="34" t="s">
@@ -4047,7 +4046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>168</v>
       </c>
@@ -4068,14 +4067,14 @@
         <v>96</v>
       </c>
       <c r="H48" s="34"/>
-      <c r="I48" s="66">
+      <c r="I48" s="40">
         <v>300</v>
       </c>
       <c r="J48" s="33">
         <v>6.6699999999999997E-6</v>
       </c>
       <c r="K48" s="33"/>
-      <c r="L48" s="68" t="s">
+      <c r="L48" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M48" s="34" t="s">
@@ -4085,7 +4084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>169</v>
       </c>
@@ -4106,14 +4105,14 @@
         <v>96</v>
       </c>
       <c r="H49" s="34"/>
-      <c r="I49" s="66">
+      <c r="I49" s="40">
         <v>300</v>
       </c>
       <c r="J49" s="33">
         <v>6.55E-6</v>
       </c>
       <c r="K49" s="33"/>
-      <c r="L49" s="68" t="s">
+      <c r="L49" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M49" s="34" t="s">
@@ -4123,7 +4122,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>170</v>
       </c>
@@ -4144,14 +4143,14 @@
         <v>96</v>
       </c>
       <c r="H50" s="34"/>
-      <c r="I50" s="66">
+      <c r="I50" s="40">
         <v>300</v>
       </c>
       <c r="J50" s="33">
         <v>6.4999999999999996E-6</v>
       </c>
       <c r="K50" s="33"/>
-      <c r="L50" s="68" t="s">
+      <c r="L50" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M50" s="34" t="s">
@@ -4161,7 +4160,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>171</v>
       </c>
@@ -4182,14 +4181,14 @@
         <v>96</v>
       </c>
       <c r="H51" s="34"/>
-      <c r="I51" s="66">
+      <c r="I51" s="40">
         <v>300</v>
       </c>
       <c r="J51" s="33">
         <v>6.3799999999999999E-6</v>
       </c>
       <c r="K51" s="33"/>
-      <c r="L51" s="68" t="s">
+      <c r="L51" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M51" s="34" t="s">
@@ -4199,7 +4198,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>172</v>
       </c>
@@ -4220,14 +4219,14 @@
         <v>96</v>
       </c>
       <c r="H52" s="34"/>
-      <c r="I52" s="66">
+      <c r="I52" s="40">
         <v>300</v>
       </c>
       <c r="J52" s="33">
         <v>6.3799999999999999E-6</v>
       </c>
       <c r="K52" s="33"/>
-      <c r="L52" s="68" t="s">
+      <c r="L52" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M52" s="34" t="s">
@@ -4237,7 +4236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>173</v>
       </c>
@@ -4258,14 +4257,14 @@
         <v>96</v>
       </c>
       <c r="H53" s="34"/>
-      <c r="I53" s="66">
+      <c r="I53" s="40">
         <v>300</v>
       </c>
       <c r="J53" s="33">
         <v>6.3799999999999999E-6</v>
       </c>
       <c r="K53" s="33"/>
-      <c r="L53" s="68" t="s">
+      <c r="L53" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M53" s="34" t="s">
@@ -4275,7 +4274,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>174</v>
       </c>
@@ -4296,14 +4295,14 @@
         <v>96</v>
       </c>
       <c r="H54" s="34"/>
-      <c r="I54" s="66">
+      <c r="I54" s="40">
         <v>300</v>
       </c>
       <c r="J54" s="33">
         <v>6.3199999999999996E-6</v>
       </c>
       <c r="K54" s="33"/>
-      <c r="L54" s="68" t="s">
+      <c r="L54" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M54" s="34" t="s">
@@ -4313,7 +4312,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>175</v>
       </c>
@@ -4334,14 +4333,14 @@
         <v>96</v>
       </c>
       <c r="H55" s="34"/>
-      <c r="I55" s="66">
+      <c r="I55" s="40">
         <v>300</v>
       </c>
       <c r="J55" s="33">
         <v>6.1600000000000003E-6</v>
       </c>
       <c r="K55" s="33"/>
-      <c r="L55" s="68" t="s">
+      <c r="L55" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M55" s="34" t="s">
@@ -4351,7 +4350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>176</v>
       </c>
@@ -4372,14 +4371,14 @@
         <v>96</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="I56" s="66">
+      <c r="I56" s="40">
         <v>300</v>
       </c>
       <c r="J56" s="33">
         <v>6.0900000000000001E-6</v>
       </c>
       <c r="K56" s="33"/>
-      <c r="L56" s="68" t="s">
+      <c r="L56" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M56" s="34" t="s">
@@ -4389,7 +4388,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>177</v>
       </c>
@@ -4410,14 +4409,14 @@
         <v>96</v>
       </c>
       <c r="H57" s="34"/>
-      <c r="I57" s="66">
+      <c r="I57" s="40">
         <v>300</v>
       </c>
       <c r="J57" s="33">
         <v>5.9399999999999999E-6</v>
       </c>
       <c r="K57" s="33"/>
-      <c r="L57" s="68" t="s">
+      <c r="L57" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M57" s="34" t="s">
@@ -4427,7 +4426,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>178</v>
       </c>
@@ -4448,14 +4447,14 @@
         <v>96</v>
       </c>
       <c r="H58" s="34"/>
-      <c r="I58" s="66">
+      <c r="I58" s="40">
         <v>300</v>
       </c>
       <c r="J58" s="33">
         <v>5.8300000000000001E-6</v>
       </c>
       <c r="K58" s="33"/>
-      <c r="L58" s="68" t="s">
+      <c r="L58" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M58" s="34" t="s">
@@ -4465,7 +4464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>179</v>
       </c>
@@ -4486,14 +4485,14 @@
         <v>96</v>
       </c>
       <c r="H59" s="34"/>
-      <c r="I59" s="66">
+      <c r="I59" s="40">
         <v>300</v>
       </c>
       <c r="J59" s="33">
         <v>5.4600000000000002E-6</v>
       </c>
       <c r="K59" s="33"/>
-      <c r="L59" s="68" t="s">
+      <c r="L59" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M59" s="34" t="s">
@@ -4503,7 +4502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>180</v>
       </c>
@@ -4524,14 +4523,14 @@
         <v>96</v>
       </c>
       <c r="H60" s="34"/>
-      <c r="I60" s="66">
+      <c r="I60" s="40">
         <v>300</v>
       </c>
       <c r="J60" s="33">
         <v>5.3900000000000001E-6</v>
       </c>
       <c r="K60" s="33"/>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M60" s="34" t="s">
@@ -4541,7 +4540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>181</v>
       </c>
@@ -4562,14 +4561,14 @@
         <v>96</v>
       </c>
       <c r="H61" s="34"/>
-      <c r="I61" s="66">
+      <c r="I61" s="40">
         <v>300</v>
       </c>
       <c r="J61" s="33">
         <v>5.31E-6</v>
       </c>
       <c r="K61" s="33"/>
-      <c r="L61" s="68" t="s">
+      <c r="L61" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M61" s="34" t="s">
@@ -4579,7 +4578,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>182</v>
       </c>
@@ -4600,14 +4599,14 @@
         <v>96</v>
       </c>
       <c r="H62" s="34"/>
-      <c r="I62" s="66">
+      <c r="I62" s="40">
         <v>300</v>
       </c>
       <c r="J62" s="33">
         <v>5.2499999999999997E-6</v>
       </c>
       <c r="K62" s="33"/>
-      <c r="L62" s="68" t="s">
+      <c r="L62" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M62" s="34" t="s">
@@ -4617,7 +4616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>190</v>
       </c>
@@ -4640,14 +4639,14 @@
         <v>19</v>
       </c>
       <c r="H63" s="34"/>
-      <c r="I63" s="66">
+      <c r="I63" s="40">
         <v>445</v>
       </c>
       <c r="J63" s="33">
         <v>1.1080000000000001E-5</v>
       </c>
       <c r="K63" s="33"/>
-      <c r="L63" s="68" t="s">
+      <c r="L63" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M63" s="34" t="s">
@@ -4657,7 +4656,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>191</v>
       </c>
@@ -4680,14 +4679,14 @@
         <v>19</v>
       </c>
       <c r="H64" s="34"/>
-      <c r="I64" s="66">
+      <c r="I64" s="40">
         <v>445</v>
       </c>
       <c r="J64" s="33">
         <v>9.5899999999999997E-6</v>
       </c>
       <c r="K64" s="33"/>
-      <c r="L64" s="68" t="s">
+      <c r="L64" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M64" s="34" t="s">
@@ -4697,7 +4696,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>192</v>
       </c>
@@ -4720,14 +4719,14 @@
         <v>19</v>
       </c>
       <c r="H65" s="34"/>
-      <c r="I65" s="66">
+      <c r="I65" s="40">
         <v>445</v>
       </c>
       <c r="J65" s="33">
         <v>1.186E-5</v>
       </c>
       <c r="K65" s="33"/>
-      <c r="L65" s="68" t="s">
+      <c r="L65" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M65" s="34" t="s">
@@ -4737,7 +4736,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>193</v>
       </c>
@@ -4760,14 +4759,14 @@
         <v>19</v>
       </c>
       <c r="H66" s="34"/>
-      <c r="I66" s="66">
+      <c r="I66" s="40">
         <v>445</v>
       </c>
       <c r="J66" s="33">
         <v>1.131E-5</v>
       </c>
       <c r="K66" s="33"/>
-      <c r="L66" s="68" t="s">
+      <c r="L66" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M66" s="34" t="s">
@@ -4777,7 +4776,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>194</v>
       </c>
@@ -4800,14 +4799,14 @@
         <v>19</v>
       </c>
       <c r="H67" s="34"/>
-      <c r="I67" s="66">
+      <c r="I67" s="40">
         <v>695</v>
       </c>
       <c r="J67" s="33">
         <v>1.1E-5</v>
       </c>
       <c r="K67" s="33"/>
-      <c r="L67" s="68" t="s">
+      <c r="L67" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M67" s="34" t="s">
@@ -4817,7 +4816,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>195</v>
       </c>
@@ -4840,14 +4839,14 @@
         <v>19</v>
       </c>
       <c r="H68" s="34"/>
-      <c r="I68" s="66">
+      <c r="I68" s="40">
         <v>695</v>
       </c>
       <c r="J68" s="33">
         <v>1.4430000000000001E-5</v>
       </c>
       <c r="K68" s="33"/>
-      <c r="L68" s="68" t="s">
+      <c r="L68" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M68" s="34" t="s">
@@ -4857,7 +4856,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>196</v>
       </c>
@@ -4880,14 +4879,14 @@
         <v>19</v>
       </c>
       <c r="H69" s="34"/>
-      <c r="I69" s="66">
+      <c r="I69" s="40">
         <v>695</v>
       </c>
       <c r="J69" s="33">
         <v>1.312E-5</v>
       </c>
       <c r="K69" s="33"/>
-      <c r="L69" s="68" t="s">
+      <c r="L69" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M69" s="34" t="s">
@@ -4897,7 +4896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>197</v>
       </c>
@@ -4920,14 +4919,14 @@
         <v>19</v>
       </c>
       <c r="H70" s="34"/>
-      <c r="I70" s="66">
+      <c r="I70" s="40">
         <v>695</v>
       </c>
       <c r="J70" s="33">
         <v>1.3169999999999999E-5</v>
       </c>
       <c r="K70" s="33"/>
-      <c r="L70" s="68" t="s">
+      <c r="L70" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M70" s="34" t="s">
@@ -4937,7 +4936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>198</v>
       </c>
@@ -4960,14 +4959,14 @@
         <v>19</v>
       </c>
       <c r="H71" s="34"/>
-      <c r="I71" s="66">
+      <c r="I71" s="40">
         <v>1125</v>
       </c>
       <c r="J71" s="33">
         <v>1.7079999999999999E-5</v>
       </c>
       <c r="K71" s="33"/>
-      <c r="L71" s="68" t="s">
+      <c r="L71" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M71" s="34" t="s">
@@ -4977,7 +4976,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>199</v>
       </c>
@@ -5000,14 +4999,14 @@
         <v>19</v>
       </c>
       <c r="H72" s="34"/>
-      <c r="I72" s="66">
+      <c r="I72" s="40">
         <v>1125</v>
       </c>
       <c r="J72" s="33">
         <v>1.9340000000000001E-5</v>
       </c>
       <c r="K72" s="33"/>
-      <c r="L72" s="68" t="s">
+      <c r="L72" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M72" s="34" t="s">
@@ -5017,7 +5016,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>200</v>
       </c>
@@ -5040,14 +5039,14 @@
         <v>19</v>
       </c>
       <c r="H73" s="34"/>
-      <c r="I73" s="66">
+      <c r="I73" s="40">
         <v>1125</v>
       </c>
       <c r="J73" s="33">
         <v>2.0239999999999999E-5</v>
       </c>
       <c r="K73" s="33"/>
-      <c r="L73" s="68" t="s">
+      <c r="L73" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M73" s="34" t="s">
@@ -5057,7 +5056,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>201</v>
       </c>
@@ -5080,14 +5079,14 @@
         <v>19</v>
       </c>
       <c r="H74" s="34"/>
-      <c r="I74" s="66">
+      <c r="I74" s="40">
         <v>1125</v>
       </c>
       <c r="J74" s="33">
         <v>2.0339999999999998E-5</v>
       </c>
       <c r="K74" s="33"/>
-      <c r="L74" s="68" t="s">
+      <c r="L74" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M74" s="34" t="s">
@@ -5097,7 +5096,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>215</v>
       </c>
@@ -5120,14 +5119,14 @@
         <v>19</v>
       </c>
       <c r="H75" s="34"/>
-      <c r="I75" s="66">
+      <c r="I75" s="40">
         <v>300</v>
       </c>
       <c r="J75" s="33">
         <v>1.468E-5</v>
       </c>
       <c r="K75" s="33"/>
-      <c r="L75" s="68" t="s">
+      <c r="L75" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M75" s="34" t="s">
@@ -5137,7 +5136,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>216</v>
       </c>
@@ -5160,14 +5159,14 @@
         <v>19</v>
       </c>
       <c r="H76" s="34"/>
-      <c r="I76" s="66">
+      <c r="I76" s="40">
         <v>300</v>
       </c>
       <c r="J76" s="33">
         <v>1.312E-5</v>
       </c>
       <c r="K76" s="33"/>
-      <c r="L76" s="68" t="s">
+      <c r="L76" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M76" s="34" t="s">
@@ -5177,7 +5176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>217</v>
       </c>
@@ -5200,14 +5199,14 @@
         <v>19</v>
       </c>
       <c r="H77" s="34"/>
-      <c r="I77" s="66">
+      <c r="I77" s="40">
         <v>300</v>
       </c>
       <c r="J77" s="33">
         <v>1.4450000000000001E-5</v>
       </c>
       <c r="K77" s="33"/>
-      <c r="L77" s="68" t="s">
+      <c r="L77" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M77" s="34" t="s">
@@ -5217,7 +5216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>218</v>
       </c>
@@ -5240,14 +5239,14 @@
         <v>19</v>
       </c>
       <c r="H78" s="34"/>
-      <c r="I78" s="66">
+      <c r="I78" s="40">
         <v>300</v>
       </c>
       <c r="J78" s="33">
         <v>1.1950000000000001E-5</v>
       </c>
       <c r="K78" s="33"/>
-      <c r="L78" s="68" t="s">
+      <c r="L78" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M78" s="34" t="s">
@@ -5257,7 +5256,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>219</v>
       </c>
@@ -5280,14 +5279,14 @@
         <v>19</v>
       </c>
       <c r="H79" s="34"/>
-      <c r="I79" s="66">
+      <c r="I79" s="40">
         <v>300</v>
       </c>
       <c r="J79" s="33">
         <v>1.289E-5</v>
       </c>
       <c r="K79" s="33"/>
-      <c r="L79" s="68" t="s">
+      <c r="L79" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M79" s="34" t="s">
@@ -5297,7 +5296,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>220</v>
       </c>
@@ -5320,14 +5319,14 @@
         <v>19</v>
       </c>
       <c r="H80" s="34"/>
-      <c r="I80" s="66">
+      <c r="I80" s="40">
         <v>300</v>
       </c>
       <c r="J80" s="33">
         <v>1.7459999999999999E-5</v>
       </c>
       <c r="K80" s="33"/>
-      <c r="L80" s="68" t="s">
+      <c r="L80" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M80" s="34" t="s">
@@ -5337,7 +5336,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>221</v>
       </c>
@@ -5360,14 +5359,14 @@
         <v>19</v>
       </c>
       <c r="H81" s="34"/>
-      <c r="I81" s="66">
+      <c r="I81" s="40">
         <v>300</v>
       </c>
       <c r="J81" s="33">
         <v>1.8709999999999999E-5</v>
       </c>
       <c r="K81" s="33"/>
-      <c r="L81" s="68" t="s">
+      <c r="L81" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M81" s="34" t="s">
@@ -5377,7 +5376,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>222</v>
       </c>
@@ -5400,14 +5399,14 @@
         <v>19</v>
       </c>
       <c r="H82" s="34"/>
-      <c r="I82" s="66">
+      <c r="I82" s="40">
         <v>500</v>
       </c>
       <c r="J82" s="33">
         <v>1.6529999999999999E-5</v>
       </c>
       <c r="K82" s="33"/>
-      <c r="L82" s="68" t="s">
+      <c r="L82" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M82" s="34" t="s">
@@ -5417,7 +5416,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>223</v>
       </c>
@@ -5440,14 +5439,14 @@
         <v>19</v>
       </c>
       <c r="H83" s="34"/>
-      <c r="I83" s="66">
+      <c r="I83" s="40">
         <v>500</v>
       </c>
       <c r="J83" s="33">
         <v>1.522E-5</v>
       </c>
       <c r="K83" s="33"/>
-      <c r="L83" s="68" t="s">
+      <c r="L83" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M83" s="34" t="s">
@@ -5457,7 +5456,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>224</v>
       </c>
@@ -5480,14 +5479,14 @@
         <v>19</v>
       </c>
       <c r="H84" s="34"/>
-      <c r="I84" s="66">
+      <c r="I84" s="40">
         <v>500</v>
       </c>
       <c r="J84" s="33">
         <v>1.5950000000000001E-5</v>
       </c>
       <c r="K84" s="33"/>
-      <c r="L84" s="68" t="s">
+      <c r="L84" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M84" s="34" t="s">
@@ -5497,7 +5496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>225</v>
       </c>
@@ -5520,14 +5519,14 @@
         <v>19</v>
       </c>
       <c r="H85" s="34"/>
-      <c r="I85" s="66">
+      <c r="I85" s="40">
         <v>500</v>
       </c>
       <c r="J85" s="33">
         <v>1.5500000000000001E-5</v>
       </c>
       <c r="K85" s="33"/>
-      <c r="L85" s="68" t="s">
+      <c r="L85" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M85" s="34" t="s">
@@ -5537,7 +5536,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>226</v>
       </c>
@@ -5560,14 +5559,14 @@
         <v>19</v>
       </c>
       <c r="H86" s="34"/>
-      <c r="I86" s="66">
+      <c r="I86" s="40">
         <v>500</v>
       </c>
       <c r="J86" s="33">
         <v>1.4260000000000001E-5</v>
       </c>
       <c r="K86" s="33"/>
-      <c r="L86" s="68" t="s">
+      <c r="L86" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M86" s="34" t="s">
@@ -5577,7 +5576,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>227</v>
       </c>
@@ -5600,14 +5599,14 @@
         <v>19</v>
       </c>
       <c r="H87" s="34"/>
-      <c r="I87" s="66">
+      <c r="I87" s="40">
         <v>500</v>
       </c>
       <c r="J87" s="33">
         <v>2.035E-5</v>
       </c>
       <c r="K87" s="33"/>
-      <c r="L87" s="68" t="s">
+      <c r="L87" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M87" s="34" t="s">
@@ -5617,7 +5616,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>228</v>
       </c>
@@ -5640,14 +5639,14 @@
         <v>19</v>
       </c>
       <c r="H88" s="34"/>
-      <c r="I88" s="66">
+      <c r="I88" s="40">
         <v>500</v>
       </c>
       <c r="J88" s="33">
         <v>2.1849999999999999E-5</v>
       </c>
       <c r="K88" s="33"/>
-      <c r="L88" s="68" t="s">
+      <c r="L88" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M88" s="34" t="s">
@@ -5657,7 +5656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>229</v>
       </c>
@@ -5680,14 +5679,14 @@
         <v>19</v>
       </c>
       <c r="H89" s="34"/>
-      <c r="I89" s="66">
+      <c r="I89" s="40">
         <v>670</v>
       </c>
       <c r="J89" s="33">
         <v>1.7030000000000001E-5</v>
       </c>
       <c r="K89" s="33"/>
-      <c r="L89" s="68" t="s">
+      <c r="L89" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M89" s="34" t="s">
@@ -5697,7 +5696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>230</v>
       </c>
@@ -5720,14 +5719,14 @@
         <v>19</v>
       </c>
       <c r="H90" s="34"/>
-      <c r="I90" s="66">
+      <c r="I90" s="40">
         <v>670</v>
       </c>
       <c r="J90" s="33">
         <v>1.5930000000000002E-5</v>
       </c>
       <c r="K90" s="33"/>
-      <c r="L90" s="68" t="s">
+      <c r="L90" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M90" s="34" t="s">
@@ -5737,7 +5736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>231</v>
       </c>
@@ -5760,14 +5759,14 @@
         <v>19</v>
       </c>
       <c r="H91" s="34"/>
-      <c r="I91" s="66">
+      <c r="I91" s="40">
         <v>670</v>
       </c>
       <c r="J91" s="33">
         <v>1.685E-5</v>
       </c>
       <c r="K91" s="33"/>
-      <c r="L91" s="68" t="s">
+      <c r="L91" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M91" s="34" t="s">
@@ -5777,7 +5776,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>232</v>
       </c>
@@ -5800,14 +5799,14 @@
         <v>19</v>
       </c>
       <c r="H92" s="34"/>
-      <c r="I92" s="66">
+      <c r="I92" s="40">
         <v>670</v>
       </c>
       <c r="J92" s="33">
         <v>1.2629999999999999E-5</v>
       </c>
       <c r="K92" s="33"/>
-      <c r="L92" s="68" t="s">
+      <c r="L92" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M92" s="34" t="s">
@@ -5817,7 +5816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>233</v>
       </c>
@@ -5840,14 +5839,14 @@
         <v>19</v>
       </c>
       <c r="H93" s="34"/>
-      <c r="I93" s="66">
+      <c r="I93" s="40">
         <v>670</v>
       </c>
       <c r="J93" s="33">
         <v>1.5319999999999999E-5</v>
       </c>
       <c r="K93" s="33"/>
-      <c r="L93" s="68" t="s">
+      <c r="L93" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M93" s="34" t="s">
@@ -5857,7 +5856,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>234</v>
       </c>
@@ -5880,14 +5879,14 @@
         <v>19</v>
       </c>
       <c r="H94" s="34"/>
-      <c r="I94" s="66">
+      <c r="I94" s="40">
         <v>670</v>
       </c>
       <c r="J94" s="33">
         <v>2.137E-5</v>
       </c>
       <c r="K94" s="33"/>
-      <c r="L94" s="68" t="s">
+      <c r="L94" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M94" s="34" t="s">
@@ -5897,7 +5896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>235</v>
       </c>
@@ -5920,14 +5919,14 @@
         <v>19</v>
       </c>
       <c r="H95" s="34"/>
-      <c r="I95" s="66">
+      <c r="I95" s="40">
         <v>670</v>
       </c>
       <c r="J95" s="33">
         <v>2.285E-5</v>
       </c>
       <c r="K95" s="33"/>
-      <c r="L95" s="68" t="s">
+      <c r="L95" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M95" s="34" t="s">
@@ -5937,7 +5936,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>236</v>
       </c>
@@ -5960,14 +5959,14 @@
         <v>19</v>
       </c>
       <c r="H96" s="34"/>
-      <c r="I96" s="66">
+      <c r="I96" s="40">
         <v>298</v>
       </c>
       <c r="J96" s="33">
         <v>214000000000</v>
       </c>
       <c r="K96" s="33"/>
-      <c r="L96" s="67" t="s">
+      <c r="L96" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M96" s="34" t="s">
@@ -5977,7 +5976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>237</v>
       </c>
@@ -6000,14 +5999,14 @@
         <v>19</v>
       </c>
       <c r="H97" s="34"/>
-      <c r="I97" s="66">
+      <c r="I97" s="40">
         <v>298</v>
       </c>
       <c r="J97" s="33">
         <v>235000000000</v>
       </c>
       <c r="K97" s="33"/>
-      <c r="L97" s="67" t="s">
+      <c r="L97" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M97" s="34" t="s">
@@ -6017,7 +6016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>238</v>
       </c>
@@ -6040,14 +6039,14 @@
         <v>19</v>
       </c>
       <c r="H98" s="34"/>
-      <c r="I98" s="66">
+      <c r="I98" s="40">
         <v>298</v>
       </c>
       <c r="J98" s="33">
         <v>190000000000</v>
       </c>
       <c r="K98" s="33"/>
-      <c r="L98" s="67" t="s">
+      <c r="L98" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M98" s="34" t="s">
@@ -6057,7 +6056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>239</v>
       </c>
@@ -6080,14 +6079,14 @@
         <v>19</v>
       </c>
       <c r="H99" s="34"/>
-      <c r="I99" s="66">
+      <c r="I99" s="40">
         <v>298</v>
       </c>
       <c r="J99" s="33">
         <v>175000000000</v>
       </c>
       <c r="K99" s="33"/>
-      <c r="L99" s="67" t="s">
+      <c r="L99" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M99" s="34" t="s">
@@ -6097,7 +6096,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>240</v>
       </c>
@@ -6120,14 +6119,14 @@
         <v>19</v>
       </c>
       <c r="H100" s="34"/>
-      <c r="I100" s="66">
+      <c r="I100" s="40">
         <v>298</v>
       </c>
       <c r="J100" s="33">
         <v>216000000000</v>
       </c>
       <c r="K100" s="33"/>
-      <c r="L100" s="67" t="s">
+      <c r="L100" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M100" s="34" t="s">
@@ -6137,7 +6136,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>241</v>
       </c>
@@ -6160,14 +6159,14 @@
         <v>19</v>
       </c>
       <c r="H101" s="34"/>
-      <c r="I101" s="66">
+      <c r="I101" s="40">
         <v>298</v>
       </c>
       <c r="J101" s="33">
         <v>191000000000</v>
       </c>
       <c r="K101" s="33"/>
-      <c r="L101" s="67" t="s">
+      <c r="L101" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M101" s="34" t="s">
@@ -6177,7 +6176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>242</v>
       </c>
@@ -6200,14 +6199,14 @@
         <v>19</v>
       </c>
       <c r="H102" s="34"/>
-      <c r="I102" s="66">
+      <c r="I102" s="40">
         <v>298</v>
       </c>
       <c r="J102" s="33">
         <v>177000000000</v>
       </c>
       <c r="K102" s="33"/>
-      <c r="L102" s="67" t="s">
+      <c r="L102" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M102" s="34" t="s">
@@ -6217,7 +6216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>243</v>
       </c>
@@ -6240,14 +6239,14 @@
         <v>19</v>
       </c>
       <c r="H103" s="34"/>
-      <c r="I103" s="66">
+      <c r="I103" s="40">
         <v>298</v>
       </c>
       <c r="J103" s="33">
         <v>1.65</v>
       </c>
       <c r="K103" s="33"/>
-      <c r="L103" s="67"/>
+      <c r="L103" s="41"/>
       <c r="M103" s="34" t="s">
         <v>119</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>244</v>
       </c>
@@ -6278,14 +6277,14 @@
         <v>19</v>
       </c>
       <c r="H104" s="34"/>
-      <c r="I104" s="66">
+      <c r="I104" s="40">
         <v>298</v>
       </c>
       <c r="J104" s="33">
         <v>2.31</v>
       </c>
       <c r="K104" s="33"/>
-      <c r="L104" s="67"/>
+      <c r="L104" s="41"/>
       <c r="M104" s="34" t="s">
         <v>119</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>245</v>
       </c>
@@ -6316,14 +6315,14 @@
         <v>19</v>
       </c>
       <c r="H105" s="34"/>
-      <c r="I105" s="66">
+      <c r="I105" s="40">
         <v>298</v>
       </c>
       <c r="J105" s="33">
         <v>1.32</v>
       </c>
       <c r="K105" s="33"/>
-      <c r="L105" s="67"/>
+      <c r="L105" s="41"/>
       <c r="M105" s="34" t="s">
         <v>119</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>246</v>
       </c>
@@ -6354,14 +6353,14 @@
         <v>19</v>
       </c>
       <c r="H106" s="34"/>
-      <c r="I106" s="66">
+      <c r="I106" s="40">
         <v>298</v>
       </c>
       <c r="J106" s="33">
         <v>2</v>
       </c>
       <c r="K106" s="33"/>
-      <c r="L106" s="67"/>
+      <c r="L106" s="41"/>
       <c r="M106" s="34" t="s">
         <v>119</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>247</v>
       </c>
@@ -6392,14 +6391,14 @@
         <v>19</v>
       </c>
       <c r="H107" s="34"/>
-      <c r="I107" s="66">
+      <c r="I107" s="40">
         <v>298</v>
       </c>
       <c r="J107" s="33">
         <v>7.03</v>
       </c>
       <c r="K107" s="33"/>
-      <c r="L107" s="67"/>
+      <c r="L107" s="41"/>
       <c r="M107" s="34" t="s">
         <v>119</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>248</v>
       </c>
@@ -6430,14 +6429,14 @@
         <v>19</v>
       </c>
       <c r="H108" s="34"/>
-      <c r="I108" s="66">
+      <c r="I108" s="40">
         <v>298</v>
       </c>
       <c r="J108" s="33">
         <v>1.37</v>
       </c>
       <c r="K108" s="33"/>
-      <c r="L108" s="67"/>
+      <c r="L108" s="41"/>
       <c r="M108" s="34" t="s">
         <v>119</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>249</v>
       </c>
@@ -6468,14 +6467,14 @@
         <v>19</v>
       </c>
       <c r="H109" s="34"/>
-      <c r="I109" s="66">
+      <c r="I109" s="40">
         <v>298</v>
       </c>
       <c r="J109" s="33">
         <v>1.1000000000000001</v>
       </c>
       <c r="K109" s="33"/>
-      <c r="L109" s="67"/>
+      <c r="L109" s="41"/>
       <c r="M109" s="34" t="s">
         <v>119</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>263</v>
       </c>
@@ -6506,24 +6505,24 @@
         <v>19</v>
       </c>
       <c r="H110" s="34"/>
-      <c r="I110" s="66">
+      <c r="I110" s="40">
         <v>298</v>
       </c>
       <c r="J110" s="33">
         <v>1.1250000000000001E-5</v>
       </c>
       <c r="K110" s="33"/>
-      <c r="L110" s="68" t="s">
+      <c r="L110" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M110" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N110" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>264</v>
       </c>
@@ -6546,24 +6545,24 @@
         <v>19</v>
       </c>
       <c r="H111" s="34"/>
-      <c r="I111" s="66">
+      <c r="I111" s="40">
         <v>298</v>
       </c>
       <c r="J111" s="33">
         <v>9.7399999999999999E-6</v>
       </c>
       <c r="K111" s="33"/>
-      <c r="L111" s="68" t="s">
+      <c r="L111" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M111" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>265</v>
       </c>
@@ -6586,24 +6585,24 @@
         <v>19</v>
       </c>
       <c r="H112" s="34"/>
-      <c r="I112" s="66">
+      <c r="I112" s="40">
         <v>298</v>
       </c>
       <c r="J112" s="33">
         <v>9.0100000000000001E-6</v>
       </c>
       <c r="K112" s="33"/>
-      <c r="L112" s="68" t="s">
+      <c r="L112" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M112" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N112" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>266</v>
       </c>
@@ -6626,24 +6625,24 @@
         <v>19</v>
       </c>
       <c r="H113" s="34"/>
-      <c r="I113" s="66">
+      <c r="I113" s="40">
         <v>298</v>
       </c>
       <c r="J113" s="33">
         <v>9.2299999999999997E-6</v>
       </c>
       <c r="K113" s="33"/>
-      <c r="L113" s="68" t="s">
+      <c r="L113" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M113" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N113" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>267</v>
       </c>
@@ -6666,24 +6665,24 @@
         <v>19</v>
       </c>
       <c r="H114" s="34"/>
-      <c r="I114" s="66">
+      <c r="I114" s="40">
         <v>298</v>
       </c>
       <c r="J114" s="33">
         <v>9.1700000000000003E-6</v>
       </c>
       <c r="K114" s="33"/>
-      <c r="L114" s="68" t="s">
+      <c r="L114" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M114" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N114" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>268</v>
       </c>
@@ -6706,24 +6705,24 @@
         <v>19</v>
       </c>
       <c r="H115" s="34"/>
-      <c r="I115" s="66">
+      <c r="I115" s="40">
         <v>298</v>
       </c>
       <c r="J115" s="33">
         <v>9.0799999999999995E-6</v>
       </c>
       <c r="K115" s="33"/>
-      <c r="L115" s="68" t="s">
+      <c r="L115" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M115" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N115" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>269</v>
       </c>
@@ -6746,24 +6745,24 @@
         <v>19</v>
       </c>
       <c r="H116" s="34"/>
-      <c r="I116" s="66">
+      <c r="I116" s="40">
         <v>298</v>
       </c>
       <c r="J116" s="33">
         <v>9.0299999999999999E-6</v>
       </c>
       <c r="K116" s="33"/>
-      <c r="L116" s="68" t="s">
+      <c r="L116" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M116" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N116" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>270</v>
       </c>
@@ -6786,24 +6785,24 @@
         <v>19</v>
       </c>
       <c r="H117" s="34"/>
-      <c r="I117" s="66">
+      <c r="I117" s="40">
         <v>298</v>
       </c>
       <c r="J117" s="33">
         <v>8.9700000000000005E-6</v>
       </c>
       <c r="K117" s="33"/>
-      <c r="L117" s="68" t="s">
+      <c r="L117" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M117" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N117" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>271</v>
       </c>
@@ -6826,24 +6825,24 @@
         <v>19</v>
       </c>
       <c r="H118" s="34"/>
-      <c r="I118" s="66">
+      <c r="I118" s="40">
         <v>298</v>
       </c>
       <c r="J118" s="33">
         <v>8.9500000000000007E-6</v>
       </c>
       <c r="K118" s="33"/>
-      <c r="L118" s="68" t="s">
+      <c r="L118" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M118" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N118" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>272</v>
       </c>
@@ -6866,24 +6865,24 @@
         <v>19</v>
       </c>
       <c r="H119" s="34"/>
-      <c r="I119" s="66">
+      <c r="I119" s="40">
         <v>298</v>
       </c>
       <c r="J119" s="33">
         <v>8.8400000000000001E-6</v>
       </c>
       <c r="K119" s="33"/>
-      <c r="L119" s="68" t="s">
+      <c r="L119" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M119" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N119" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>273</v>
       </c>
@@ -6906,24 +6905,24 @@
         <v>19</v>
       </c>
       <c r="H120" s="34"/>
-      <c r="I120" s="66">
+      <c r="I120" s="40">
         <v>373</v>
       </c>
       <c r="J120" s="33">
         <v>1.509E-5</v>
       </c>
       <c r="K120" s="33"/>
-      <c r="L120" s="68" t="s">
+      <c r="L120" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M120" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N120" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>274</v>
       </c>
@@ -6946,24 +6945,24 @@
         <v>19</v>
       </c>
       <c r="H121" s="34"/>
-      <c r="I121" s="66">
+      <c r="I121" s="40">
         <v>373</v>
       </c>
       <c r="J121" s="33">
         <v>1.473E-5</v>
       </c>
       <c r="K121" s="33"/>
-      <c r="L121" s="68" t="s">
+      <c r="L121" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M121" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N121" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>275</v>
       </c>
@@ -6986,24 +6985,24 @@
         <v>19</v>
       </c>
       <c r="H122" s="34"/>
-      <c r="I122" s="66">
+      <c r="I122" s="40">
         <v>373</v>
       </c>
       <c r="J122" s="33">
         <v>1.4389999999999999E-5</v>
       </c>
       <c r="K122" s="33"/>
-      <c r="L122" s="68" t="s">
+      <c r="L122" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M122" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N122" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>276</v>
       </c>
@@ -7026,24 +7025,24 @@
         <v>19</v>
       </c>
       <c r="H123" s="34"/>
-      <c r="I123" s="66">
+      <c r="I123" s="40">
         <v>373</v>
       </c>
       <c r="J123" s="33">
         <v>1.933E-5</v>
       </c>
       <c r="K123" s="33"/>
-      <c r="L123" s="68" t="s">
+      <c r="L123" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M123" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N123" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>277</v>
       </c>
@@ -7066,24 +7065,24 @@
         <v>19</v>
       </c>
       <c r="H124" s="34"/>
-      <c r="I124" s="66">
+      <c r="I124" s="40">
         <v>373</v>
       </c>
       <c r="J124" s="33">
         <v>1.341E-5</v>
       </c>
       <c r="K124" s="33"/>
-      <c r="L124" s="68" t="s">
+      <c r="L124" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M124" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N124" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>278</v>
       </c>
@@ -7106,24 +7105,24 @@
         <v>19</v>
       </c>
       <c r="H125" s="34"/>
-      <c r="I125" s="66">
+      <c r="I125" s="40">
         <v>373</v>
       </c>
       <c r="J125" s="33">
         <v>1.294E-5</v>
       </c>
       <c r="K125" s="33"/>
-      <c r="L125" s="68" t="s">
+      <c r="L125" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M125" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N125" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>279</v>
       </c>
@@ -7146,24 +7145,24 @@
         <v>19</v>
       </c>
       <c r="H126" s="34"/>
-      <c r="I126" s="66">
+      <c r="I126" s="40">
         <v>373</v>
       </c>
       <c r="J126" s="33">
         <v>1.2469999999999999E-5</v>
       </c>
       <c r="K126" s="33"/>
-      <c r="L126" s="68" t="s">
+      <c r="L126" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M126" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N126" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>280</v>
       </c>
@@ -7186,24 +7185,24 @@
         <v>19</v>
       </c>
       <c r="H127" s="34"/>
-      <c r="I127" s="66">
+      <c r="I127" s="40">
         <v>373</v>
       </c>
       <c r="J127" s="33">
         <v>1.1970000000000001E-5</v>
       </c>
       <c r="K127" s="33"/>
-      <c r="L127" s="68" t="s">
+      <c r="L127" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M127" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N127" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>281</v>
       </c>
@@ -7226,24 +7225,24 @@
         <v>19</v>
       </c>
       <c r="H128" s="34"/>
-      <c r="I128" s="66">
+      <c r="I128" s="40">
         <v>373</v>
       </c>
       <c r="J128" s="33">
         <v>1.188E-5</v>
       </c>
       <c r="K128" s="33"/>
-      <c r="L128" s="68" t="s">
+      <c r="L128" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M128" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N128" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>282</v>
       </c>
@@ -7266,24 +7265,24 @@
         <v>19</v>
       </c>
       <c r="H129" s="34"/>
-      <c r="I129" s="66">
+      <c r="I129" s="40">
         <v>373</v>
       </c>
       <c r="J129" s="33">
         <v>1.171E-5</v>
       </c>
       <c r="K129" s="33"/>
-      <c r="L129" s="68" t="s">
+      <c r="L129" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M129" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N129" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>283</v>
       </c>
@@ -7306,24 +7305,24 @@
         <v>19</v>
       </c>
       <c r="H130" s="34"/>
-      <c r="I130" s="66">
+      <c r="I130" s="40">
         <v>600</v>
       </c>
       <c r="J130" s="33">
         <v>1.6399999999999999E-5</v>
       </c>
       <c r="K130" s="33"/>
-      <c r="L130" s="68" t="s">
+      <c r="L130" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M130" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N130" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>284</v>
       </c>
@@ -7346,24 +7345,24 @@
         <v>19</v>
       </c>
       <c r="H131" s="34"/>
-      <c r="I131" s="66">
+      <c r="I131" s="40">
         <v>600</v>
       </c>
       <c r="J131" s="33">
         <v>1.6010000000000001E-5</v>
       </c>
       <c r="K131" s="33"/>
-      <c r="L131" s="68" t="s">
+      <c r="L131" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M131" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N131" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>285</v>
       </c>
@@ -7386,24 +7385,24 @@
         <v>19</v>
       </c>
       <c r="H132" s="34"/>
-      <c r="I132" s="66">
+      <c r="I132" s="40">
         <v>600</v>
       </c>
       <c r="J132" s="33">
         <v>1.575E-5</v>
       </c>
       <c r="K132" s="33"/>
-      <c r="L132" s="68" t="s">
+      <c r="L132" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M132" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N132" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>286</v>
       </c>
@@ -7426,24 +7425,24 @@
         <v>19</v>
       </c>
       <c r="H133" s="34"/>
-      <c r="I133" s="66">
+      <c r="I133" s="40">
         <v>600</v>
       </c>
       <c r="J133" s="33">
         <v>1.487E-5</v>
       </c>
       <c r="K133" s="33"/>
-      <c r="L133" s="68" t="s">
+      <c r="L133" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M133" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N133" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>287</v>
       </c>
@@ -7466,24 +7465,24 @@
         <v>19</v>
       </c>
       <c r="H134" s="34"/>
-      <c r="I134" s="66">
+      <c r="I134" s="40">
         <v>600</v>
       </c>
       <c r="J134" s="33">
         <v>1.414E-5</v>
       </c>
       <c r="K134" s="33"/>
-      <c r="L134" s="68" t="s">
+      <c r="L134" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M134" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N134" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>288</v>
       </c>
@@ -7506,24 +7505,24 @@
         <v>19</v>
       </c>
       <c r="H135" s="34"/>
-      <c r="I135" s="66">
+      <c r="I135" s="40">
         <v>600</v>
       </c>
       <c r="J135" s="33">
         <v>1.3920000000000001E-5</v>
       </c>
       <c r="K135" s="33"/>
-      <c r="L135" s="68" t="s">
+      <c r="L135" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M135" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N135" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>289</v>
       </c>
@@ -7546,24 +7545,24 @@
         <v>19</v>
       </c>
       <c r="H136" s="34"/>
-      <c r="I136" s="66">
+      <c r="I136" s="40">
         <v>600</v>
       </c>
       <c r="J136" s="33">
         <v>1.3540000000000001E-5</v>
       </c>
       <c r="K136" s="33"/>
-      <c r="L136" s="68" t="s">
+      <c r="L136" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M136" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N136" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>290</v>
       </c>
@@ -7586,24 +7585,24 @@
         <v>19</v>
       </c>
       <c r="H137" s="34"/>
-      <c r="I137" s="66">
+      <c r="I137" s="40">
         <v>600</v>
       </c>
       <c r="J137" s="33">
         <v>1.3349999999999999E-5</v>
       </c>
       <c r="K137" s="33"/>
-      <c r="L137" s="68" t="s">
+      <c r="L137" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M137" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N137" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>291</v>
       </c>
@@ -7626,24 +7625,24 @@
         <v>19</v>
       </c>
       <c r="H138" s="34"/>
-      <c r="I138" s="66">
+      <c r="I138" s="40">
         <v>600</v>
       </c>
       <c r="J138" s="33">
         <v>1.3010000000000001E-5</v>
       </c>
       <c r="K138" s="33"/>
-      <c r="L138" s="68" t="s">
+      <c r="L138" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M138" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N138" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>292</v>
       </c>
@@ -7666,24 +7665,24 @@
         <v>19</v>
       </c>
       <c r="H139" s="34"/>
-      <c r="I139" s="66">
+      <c r="I139" s="40">
         <v>600</v>
       </c>
       <c r="J139" s="33">
         <v>1.2850000000000001E-5</v>
       </c>
       <c r="K139" s="33"/>
-      <c r="L139" s="68" t="s">
+      <c r="L139" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M139" s="20" t="s">
         <v>262</v>
       </c>
       <c r="N139" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>295</v>
       </c>
@@ -7713,17 +7712,17 @@
         <v>2.4119999999999999E-5</v>
       </c>
       <c r="K140" s="33"/>
-      <c r="L140" s="68" t="s">
+      <c r="L140" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M140" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N140" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>296</v>
       </c>
@@ -7753,17 +7752,17 @@
         <v>2.508E-5</v>
       </c>
       <c r="K141" s="33"/>
-      <c r="L141" s="68" t="s">
+      <c r="L141" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M141" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N141" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>297</v>
       </c>
@@ -7793,17 +7792,17 @@
         <v>2.7229999999999998E-5</v>
       </c>
       <c r="K142" s="33"/>
-      <c r="L142" s="68" t="s">
+      <c r="L142" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M142" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N142" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>298</v>
       </c>
@@ -7833,17 +7832,17 @@
         <v>2.321E-5</v>
       </c>
       <c r="K143" s="33"/>
-      <c r="L143" s="68" t="s">
+      <c r="L143" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M143" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N143" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>299</v>
       </c>
@@ -7873,17 +7872,17 @@
         <v>2.251E-5</v>
       </c>
       <c r="K144" s="33"/>
-      <c r="L144" s="68" t="s">
+      <c r="L144" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M144" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N144" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>300</v>
       </c>
@@ -7913,17 +7912,17 @@
         <v>2.5590000000000001E-5</v>
       </c>
       <c r="K145" s="33"/>
-      <c r="L145" s="68" t="s">
+      <c r="L145" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M145" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N145" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>301</v>
       </c>
@@ -7953,17 +7952,17 @@
         <v>2.4090000000000001E-5</v>
       </c>
       <c r="K146" s="33"/>
-      <c r="L146" s="68" t="s">
+      <c r="L146" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M146" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N146" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>302</v>
       </c>
@@ -7993,17 +7992,17 @@
         <v>2.0299999999999999E-5</v>
       </c>
       <c r="K147" s="33"/>
-      <c r="L147" s="68" t="s">
+      <c r="L147" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M147" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N147" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>303</v>
       </c>
@@ -8033,17 +8032,17 @@
         <v>2.726E-5</v>
       </c>
       <c r="K148" s="33"/>
-      <c r="L148" s="68" t="s">
+      <c r="L148" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M148" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N148" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>304</v>
       </c>
@@ -8073,19 +8072,19 @@
         <v>2.5299999999999998E-5</v>
       </c>
       <c r="K149" s="33"/>
-      <c r="L149" s="68" t="s">
+      <c r="L149" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M149" s="20" t="s">
         <v>294</v>
       </c>
       <c r="N149" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s">
         <v>305</v>
@@ -8097,7 +8096,7 @@
         <v>118</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F150" s="34" t="s">
         <v>306</v>
@@ -8109,23 +8108,23 @@
       <c r="I150" s="36">
         <v>298</v>
       </c>
-      <c r="J150">
-        <v>8.1999999999999993</v>
+      <c r="J150" s="33">
+        <v>8200</v>
       </c>
       <c r="K150" s="33"/>
       <c r="L150" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="M150" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="M150" s="20" t="s">
-        <v>308</v>
-      </c>
       <c r="N150" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B151" t="s">
         <v>305</v>
@@ -8137,7 +8136,7 @@
         <v>118</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F151" s="34" t="s">
         <v>213</v>
@@ -8160,12 +8159,12 @@
         <v>71</v>
       </c>
       <c r="N151" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B152" t="s">
         <v>305</v>
@@ -8177,7 +8176,7 @@
         <v>118</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F152" s="34" t="s">
         <v>89</v>
@@ -8193,19 +8192,19 @@
         <v>1.2490000000000001E-5</v>
       </c>
       <c r="K152" s="33"/>
-      <c r="L152" s="68" t="s">
+      <c r="L152" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N152" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B153" t="s">
         <v>305</v>
@@ -8217,7 +8216,7 @@
         <v>118</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F153" s="34" t="s">
         <v>89</v>
@@ -8233,19 +8232,19 @@
         <v>1.519E-5</v>
       </c>
       <c r="K153" s="33"/>
-      <c r="L153" s="68" t="s">
+      <c r="L153" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N153" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B154" t="s">
         <v>305</v>
@@ -8257,7 +8256,7 @@
         <v>118</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F154" s="34" t="s">
         <v>89</v>
@@ -8273,19 +8272,19 @@
         <v>1.632E-5</v>
       </c>
       <c r="K154" s="33"/>
-      <c r="L154" s="68" t="s">
+      <c r="L154" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N154" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s">
         <v>305</v>
@@ -8297,7 +8296,7 @@
         <v>118</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F155" s="34" t="s">
         <v>89</v>
@@ -8313,31 +8312,31 @@
         <v>2.1019999999999999E-5</v>
       </c>
       <c r="K155" s="33"/>
-      <c r="L155" s="68" t="s">
+      <c r="L155" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N155" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C156" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D156" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="F156" s="34" t="s">
         <v>89</v>
@@ -8353,31 +8352,31 @@
         <v>1.5E-5</v>
       </c>
       <c r="K156" s="33"/>
-      <c r="L156" s="68" t="s">
+      <c r="L156" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N156" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C157" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D157" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E157" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="F157" s="34" t="s">
         <v>89</v>
@@ -8393,31 +8392,31 @@
         <v>2.05E-5</v>
       </c>
       <c r="K157" s="33"/>
-      <c r="L157" s="68" t="s">
+      <c r="L157" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N157" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C158" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D158" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E158" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="E158" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="F158" s="34" t="s">
         <v>89</v>
@@ -8433,31 +8432,31 @@
         <v>2.34E-5</v>
       </c>
       <c r="K158" s="33"/>
-      <c r="L158" s="68" t="s">
+      <c r="L158" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N158" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C159" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D159" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E159" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="F159" s="34" t="s">
         <v>213</v>
@@ -8477,30 +8476,30 @@
         <v>46</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C160" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D160" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E160" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E160" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="F160" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G160" s="34" t="s">
         <v>19</v>
@@ -8517,30 +8516,30 @@
         <v>46</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N160" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C161" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D161" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E161" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E161" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="F161" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G161" s="34" t="s">
         <v>19</v>
@@ -8557,27 +8556,27 @@
         <v>46</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N161" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C162" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D162" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E162" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="E162" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="F162" s="34" t="s">
         <v>213</v>
@@ -8597,30 +8596,30 @@
         <v>46</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N162" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C163" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D163" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E163" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E163" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="F163" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G163" s="34" t="s">
         <v>19</v>
@@ -8637,18 +8636,18 @@
         <v>46</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N163" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C164" s="34" t="s">
         <v>67</v>
@@ -8679,18 +8678,18 @@
         <v>184</v>
       </c>
       <c r="N164" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q164">
         <v>800</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C165" s="34" t="s">
         <v>212</v>
@@ -8699,7 +8698,7 @@
         <v>118</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F165" s="34" t="s">
         <v>86</v>
@@ -8723,18 +8722,18 @@
         <v>184</v>
       </c>
       <c r="N165" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q165">
         <v>1860</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C166" s="34" t="s">
         <v>212</v>
@@ -8743,7 +8742,7 @@
         <v>118</v>
       </c>
       <c r="E166" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F166" s="34" t="s">
         <v>86</v>
@@ -8767,18 +8766,18 @@
         <v>184</v>
       </c>
       <c r="N166" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q166">
         <v>1360</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C167" s="34" t="s">
         <v>212</v>
@@ -8787,7 +8786,7 @@
         <v>118</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F167" s="34" t="s">
         <v>86</v>
@@ -8811,18 +8810,18 @@
         <v>184</v>
       </c>
       <c r="N167" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>1830</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C168" s="34" t="s">
         <v>212</v>
@@ -8831,7 +8830,7 @@
         <v>118</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F168" s="34" t="s">
         <v>86</v>
@@ -8855,18 +8854,18 @@
         <v>184</v>
       </c>
       <c r="N168" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q168">
         <v>1130</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C169" s="34" t="s">
         <v>67</v>
@@ -8893,18 +8892,18 @@
         <v>46</v>
       </c>
       <c r="M169" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N169" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C170" s="34" t="s">
         <v>212</v>
@@ -8913,7 +8912,7 @@
         <v>118</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F170" s="34" t="s">
         <v>213</v>
@@ -8933,18 +8932,18 @@
         <v>46</v>
       </c>
       <c r="M170" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N170" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C171" s="34" t="s">
         <v>212</v>
@@ -8953,7 +8952,7 @@
         <v>118</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F171" s="34" t="s">
         <v>213</v>
@@ -8973,18 +8972,18 @@
         <v>46</v>
       </c>
       <c r="M171" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N171" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C172" s="34" t="s">
         <v>212</v>
@@ -8993,7 +8992,7 @@
         <v>118</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F172" s="34" t="s">
         <v>213</v>
@@ -9013,18 +9012,18 @@
         <v>46</v>
       </c>
       <c r="M172" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N172" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C173" s="34" t="s">
         <v>212</v>
@@ -9033,7 +9032,7 @@
         <v>118</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F173" s="34" t="s">
         <v>213</v>
@@ -9053,18 +9052,18 @@
         <v>46</v>
       </c>
       <c r="M173" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N173" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A174" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="20" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="C174" s="34" t="s">
         <v>67</v>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G174" s="34" t="s">
         <v>19</v>
@@ -9091,18 +9090,18 @@
         <v>46</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N174" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C175" s="34" t="s">
         <v>212</v>
@@ -9111,10 +9110,10 @@
         <v>118</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G175" s="34" t="s">
         <v>19</v>
@@ -9131,18 +9130,18 @@
         <v>46</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N175" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C176" s="34" t="s">
         <v>212</v>
@@ -9151,10 +9150,10 @@
         <v>118</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G176" s="34" t="s">
         <v>19</v>
@@ -9171,18 +9170,18 @@
         <v>46</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N176" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C177" s="34" t="s">
         <v>212</v>
@@ -9191,10 +9190,10 @@
         <v>118</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G177" s="34" t="s">
         <v>19</v>
@@ -9211,18 +9210,18 @@
         <v>46</v>
       </c>
       <c r="M177" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N177" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C178" s="34" t="s">
         <v>212</v>
@@ -9231,10 +9230,10 @@
         <v>118</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F178" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G178" s="34" t="s">
         <v>19</v>
@@ -9251,21 +9250,21 @@
         <v>46</v>
       </c>
       <c r="M178" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N178" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B179" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" s="34" t="s">
         <v>359</v>
-      </c>
-      <c r="C179" s="34" t="s">
-        <v>360</v>
       </c>
       <c r="D179" s="34" t="s">
         <v>118</v>
@@ -9292,18 +9291,18 @@
         <v>101</v>
       </c>
       <c r="N179" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B180" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="34" t="s">
         <v>359</v>
-      </c>
-      <c r="C180" s="34" t="s">
-        <v>360</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>118</v>
@@ -9330,18 +9329,18 @@
         <v>101</v>
       </c>
       <c r="N180" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B181" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="34" t="s">
         <v>359</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>360</v>
       </c>
       <c r="D181" s="34" t="s">
         <v>118</v>
@@ -9368,10 +9367,10 @@
         <v>101</v>
       </c>
       <c r="N181" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="37"/>
       <c r="B182" s="20"/>
       <c r="C182" s="34"/>
@@ -9387,7 +9386,7 @@
       <c r="M182" s="20"/>
       <c r="N182" s="20"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="37"/>
       <c r="B183" s="20"/>
       <c r="C183" s="34"/>
@@ -9403,7 +9402,7 @@
       <c r="M183" s="20"/>
       <c r="N183" s="20"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="37"/>
       <c r="B184" s="20"/>
       <c r="C184" s="34"/>
@@ -9419,7 +9418,7 @@
       <c r="M184" s="20"/>
       <c r="N184" s="20"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="37"/>
       <c r="B185" s="20"/>
       <c r="C185" s="34"/>
@@ -9435,7 +9434,7 @@
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="37"/>
       <c r="B186" s="20"/>
       <c r="C186" s="34"/>
@@ -9451,7 +9450,7 @@
       <c r="M186" s="20"/>
       <c r="N186" s="20"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="37"/>
       <c r="B187" s="20"/>
       <c r="C187" s="34"/>
@@ -9467,7 +9466,7 @@
       <c r="M187" s="20"/>
       <c r="N187" s="20"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="37"/>
       <c r="B188" s="20"/>
       <c r="C188" s="34"/>
@@ -9483,7 +9482,7 @@
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="37"/>
       <c r="B189" s="20"/>
       <c r="C189" s="34"/>
@@ -9499,7 +9498,7 @@
       <c r="M189" s="20"/>
       <c r="N189" s="20"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="37"/>
       <c r="B190" s="20"/>
       <c r="C190" s="34"/>
@@ -9515,7 +9514,7 @@
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="37"/>
       <c r="B191" s="20"/>
       <c r="C191" s="34"/>
@@ -9531,7 +9530,7 @@
       <c r="M191" s="20"/>
       <c r="N191" s="20"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="37"/>
       <c r="B192" s="20"/>
       <c r="C192" s="34"/>
@@ -9547,7 +9546,7 @@
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="37"/>
       <c r="B193" s="20"/>
       <c r="C193" s="34"/>
@@ -9563,7 +9562,7 @@
       <c r="M193" s="20"/>
       <c r="N193" s="20"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="37"/>
       <c r="B194" s="20"/>
       <c r="C194" s="34"/>
@@ -9579,7 +9578,7 @@
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="37"/>
       <c r="B195" s="20"/>
       <c r="C195" s="34"/>
@@ -9595,7 +9594,7 @@
       <c r="M195" s="20"/>
       <c r="N195" s="20"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="37"/>
       <c r="B196" s="20"/>
       <c r="C196" s="34"/>
@@ -9611,7 +9610,7 @@
       <c r="M196" s="20"/>
       <c r="N196" s="20"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
       <c r="B197" s="20"/>
       <c r="C197" s="34"/>
@@ -9627,7 +9626,7 @@
       <c r="M197" s="20"/>
       <c r="N197" s="20"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="37"/>
       <c r="B198" s="20"/>
       <c r="C198" s="34"/>
@@ -9643,7 +9642,7 @@
       <c r="M198" s="20"/>
       <c r="N198" s="20"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="37"/>
       <c r="B199" s="20"/>
       <c r="C199" s="34"/>
@@ -9659,7 +9658,7 @@
       <c r="M199" s="20"/>
       <c r="N199" s="20"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="37"/>
       <c r="B200" s="20"/>
       <c r="C200" s="34"/>
@@ -9675,7 +9674,7 @@
       <c r="M200" s="20"/>
       <c r="N200" s="20"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
       <c r="B201" s="20"/>
       <c r="C201" s="34"/>
@@ -9691,7 +9690,7 @@
       <c r="M201" s="20"/>
       <c r="N201" s="20"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="37"/>
       <c r="B202" s="20"/>
       <c r="C202" s="34"/>
@@ -9707,7 +9706,7 @@
       <c r="M202" s="20"/>
       <c r="N202" s="20"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="37"/>
       <c r="B203" s="20"/>
       <c r="C203" s="34"/>
@@ -9723,7 +9722,7 @@
       <c r="M203" s="20"/>
       <c r="N203" s="20"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="37"/>
       <c r="B204" s="20"/>
       <c r="C204" s="34"/>
@@ -9739,7 +9738,7 @@
       <c r="M204" s="20"/>
       <c r="N204" s="20"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="37"/>
       <c r="B205" s="20"/>
       <c r="C205" s="34"/>
@@ -9755,7 +9754,7 @@
       <c r="M205" s="20"/>
       <c r="N205" s="20"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="37"/>
       <c r="B206" s="20"/>
       <c r="C206" s="34"/>
@@ -9771,7 +9770,7 @@
       <c r="M206" s="20"/>
       <c r="N206" s="20"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="37"/>
       <c r="B207" s="20"/>
       <c r="C207" s="34"/>
@@ -9787,7 +9786,7 @@
       <c r="M207" s="20"/>
       <c r="N207" s="20"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="37"/>
       <c r="B208" s="20"/>
       <c r="C208" s="34"/>
@@ -9803,7 +9802,7 @@
       <c r="M208" s="20"/>
       <c r="N208" s="20"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="37"/>
       <c r="B209" s="20"/>
       <c r="C209" s="34"/>
@@ -9819,7 +9818,7 @@
       <c r="M209" s="20"/>
       <c r="N209" s="20"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="37"/>
       <c r="B210" s="20"/>
       <c r="C210" s="34"/>
@@ -9835,7 +9834,7 @@
       <c r="M210" s="20"/>
       <c r="N210" s="20"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="37"/>
       <c r="B211" s="20"/>
       <c r="C211" s="34"/>
@@ -9851,7 +9850,7 @@
       <c r="M211" s="20"/>
       <c r="N211" s="20"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="37"/>
       <c r="B212" s="20"/>
       <c r="C212" s="34"/>
@@ -9867,7 +9866,7 @@
       <c r="M212" s="20"/>
       <c r="N212" s="20"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="37"/>
       <c r="B213" s="20"/>
       <c r="C213" s="34"/>
@@ -9883,7 +9882,7 @@
       <c r="M213" s="20"/>
       <c r="N213" s="20"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="37"/>
       <c r="B214" s="20"/>
       <c r="C214" s="34"/>
@@ -9899,7 +9898,7 @@
       <c r="M214" s="20"/>
       <c r="N214" s="20"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="37"/>
       <c r="B215" s="20"/>
       <c r="C215" s="34"/>
@@ -9915,7 +9914,7 @@
       <c r="M215" s="20"/>
       <c r="N215" s="20"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="37"/>
       <c r="B216" s="20"/>
       <c r="C216" s="34"/>
@@ -9931,7 +9930,7 @@
       <c r="M216" s="20"/>
       <c r="N216" s="20"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="37"/>
       <c r="B217" s="20"/>
       <c r="C217" s="34"/>
@@ -9947,7 +9946,7 @@
       <c r="M217" s="20"/>
       <c r="N217" s="20"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="37"/>
       <c r="B218" s="20"/>
       <c r="C218" s="34"/>
@@ -9963,7 +9962,7 @@
       <c r="M218" s="20"/>
       <c r="N218" s="20"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="37"/>
       <c r="B219" s="20"/>
       <c r="C219" s="34"/>
@@ -9979,7 +9978,7 @@
       <c r="M219" s="20"/>
       <c r="N219" s="20"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="37"/>
       <c r="B220" s="20"/>
       <c r="C220" s="34"/>
@@ -9995,7 +9994,7 @@
       <c r="M220" s="20"/>
       <c r="N220" s="20"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="37"/>
       <c r="B221" s="20"/>
       <c r="C221" s="34"/>
@@ -10011,7 +10010,7 @@
       <c r="M221" s="20"/>
       <c r="N221" s="20"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="37"/>
       <c r="B222" s="20"/>
       <c r="C222" s="34"/>
@@ -10027,7 +10026,7 @@
       <c r="M222" s="20"/>
       <c r="N222" s="20"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="37"/>
       <c r="B223" s="20"/>
       <c r="C223" s="34"/>
@@ -10043,7 +10042,7 @@
       <c r="M223" s="20"/>
       <c r="N223" s="20"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="37"/>
       <c r="B224" s="20"/>
       <c r="C224" s="34"/>
@@ -10059,7 +10058,7 @@
       <c r="M224" s="20"/>
       <c r="N224" s="20"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="37"/>
       <c r="B225" s="20"/>
       <c r="C225" s="34"/>
@@ -10075,7 +10074,7 @@
       <c r="M225" s="20"/>
       <c r="N225" s="20"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="37"/>
       <c r="B226" s="20"/>
       <c r="C226" s="34"/>
@@ -10091,7 +10090,7 @@
       <c r="M226" s="20"/>
       <c r="N226" s="20"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="37"/>
       <c r="B227" s="20"/>
       <c r="C227" s="34"/>
@@ -10107,7 +10106,7 @@
       <c r="M227" s="20"/>
       <c r="N227" s="20"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="37"/>
       <c r="B228" s="20"/>
       <c r="C228" s="34"/>
@@ -10123,7 +10122,7 @@
       <c r="M228" s="20"/>
       <c r="N228" s="20"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="37"/>
       <c r="B229" s="20"/>
       <c r="C229" s="34"/>
@@ -10139,7 +10138,7 @@
       <c r="M229" s="20"/>
       <c r="N229" s="20"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="37"/>
       <c r="B230" s="20"/>
       <c r="C230" s="34"/>
@@ -10155,7 +10154,7 @@
       <c r="M230" s="20"/>
       <c r="N230" s="20"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="37"/>
       <c r="B231" s="20"/>
       <c r="C231" s="34"/>
@@ -10171,7 +10170,7 @@
       <c r="M231" s="20"/>
       <c r="N231" s="20"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="37"/>
       <c r="B232" s="20"/>
       <c r="C232" s="34"/>
@@ -10187,7 +10186,7 @@
       <c r="M232" s="20"/>
       <c r="N232" s="20"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="37"/>
       <c r="B233" s="20"/>
       <c r="C233" s="34"/>
@@ -10203,7 +10202,7 @@
       <c r="M233" s="20"/>
       <c r="N233" s="20"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="37"/>
       <c r="B234" s="20"/>
       <c r="C234" s="34"/>
@@ -10219,7 +10218,7 @@
       <c r="M234" s="20"/>
       <c r="N234" s="20"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="37"/>
       <c r="B235" s="20"/>
       <c r="C235" s="34"/>
@@ -10235,7 +10234,7 @@
       <c r="M235" s="20"/>
       <c r="N235" s="20"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="37"/>
       <c r="B236" s="20"/>
       <c r="C236" s="34"/>
@@ -10251,7 +10250,7 @@
       <c r="M236" s="20"/>
       <c r="N236" s="20"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="37"/>
       <c r="B237" s="20"/>
       <c r="C237" s="34"/>
@@ -10267,7 +10266,7 @@
       <c r="M237" s="20"/>
       <c r="N237" s="20"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="37"/>
       <c r="B238" s="20"/>
       <c r="C238" s="34"/>
@@ -10283,7 +10282,7 @@
       <c r="M238" s="20"/>
       <c r="N238" s="20"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="37"/>
       <c r="B239" s="20"/>
       <c r="C239" s="34"/>
@@ -10299,7 +10298,7 @@
       <c r="M239" s="20"/>
       <c r="N239" s="20"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="37"/>
       <c r="B240" s="20"/>
       <c r="C240" s="34"/>
@@ -10315,7 +10314,7 @@
       <c r="M240" s="20"/>
       <c r="N240" s="20"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="37"/>
       <c r="B241" s="20"/>
       <c r="C241" s="34"/>
@@ -10331,7 +10330,7 @@
       <c r="M241" s="20"/>
       <c r="N241" s="20"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="37"/>
       <c r="B242" s="20"/>
       <c r="C242" s="34"/>
@@ -10347,7 +10346,7 @@
       <c r="M242" s="20"/>
       <c r="N242" s="20"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="37"/>
       <c r="B243" s="20"/>
       <c r="C243" s="34"/>
@@ -10363,7 +10362,7 @@
       <c r="M243" s="20"/>
       <c r="N243" s="20"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="37"/>
       <c r="B244" s="20"/>
       <c r="C244" s="34"/>
@@ -10379,7 +10378,7 @@
       <c r="M244" s="20"/>
       <c r="N244" s="20"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="37"/>
       <c r="B245" s="20"/>
       <c r="C245" s="34"/>
@@ -10395,7 +10394,7 @@
       <c r="M245" s="20"/>
       <c r="N245" s="20"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="37"/>
       <c r="B246" s="20"/>
       <c r="C246" s="34"/>
@@ -10411,7 +10410,7 @@
       <c r="M246" s="20"/>
       <c r="N246" s="20"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="37"/>
       <c r="B247" s="20"/>
       <c r="C247" s="34"/>
@@ -10427,7 +10426,7 @@
       <c r="M247" s="20"/>
       <c r="N247" s="20"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="37"/>
       <c r="B248" s="20"/>
       <c r="C248" s="34"/>
@@ -10443,7 +10442,7 @@
       <c r="M248" s="20"/>
       <c r="N248" s="20"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="37"/>
       <c r="B249" s="20"/>
       <c r="C249" s="34"/>
@@ -10459,7 +10458,7 @@
       <c r="M249" s="20"/>
       <c r="N249" s="20"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="37"/>
       <c r="B250" s="20"/>
       <c r="C250" s="34"/>
@@ -10475,7 +10474,7 @@
       <c r="M250" s="20"/>
       <c r="N250" s="20"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="37"/>
       <c r="B251" s="20"/>
       <c r="C251" s="34"/>
@@ -10491,7 +10490,7 @@
       <c r="M251" s="20"/>
       <c r="N251" s="20"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="37"/>
       <c r="B252" s="20"/>
       <c r="C252" s="34"/>
@@ -10507,7 +10506,7 @@
       <c r="M252" s="20"/>
       <c r="N252" s="20"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="37"/>
       <c r="B253" s="20"/>
       <c r="C253" s="34"/>
@@ -10523,7 +10522,7 @@
       <c r="M253" s="20"/>
       <c r="N253" s="20"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="37"/>
       <c r="B254" s="20"/>
       <c r="C254" s="34"/>
@@ -10539,7 +10538,7 @@
       <c r="M254" s="20"/>
       <c r="N254" s="20"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="37"/>
       <c r="B255" s="20"/>
       <c r="C255" s="34"/>
@@ -10555,7 +10554,7 @@
       <c r="M255" s="20"/>
       <c r="N255" s="20"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="37"/>
       <c r="B256" s="20"/>
       <c r="C256" s="34"/>
@@ -10571,7 +10570,7 @@
       <c r="M256" s="20"/>
       <c r="N256" s="20"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="37"/>
       <c r="B257" s="20"/>
       <c r="C257" s="34"/>
@@ -10587,7 +10586,7 @@
       <c r="M257" s="20"/>
       <c r="N257" s="20"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="37"/>
       <c r="B258" s="20"/>
       <c r="C258" s="34"/>
@@ -10603,7 +10602,7 @@
       <c r="M258" s="20"/>
       <c r="N258" s="20"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="C259" s="35"/>
       <c r="D259" s="35"/>
@@ -10617,7 +10616,7 @@
       <c r="M259" s="20"/>
       <c r="N259" s="20"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="C260" s="35"/>
       <c r="D260" s="35"/>
@@ -10631,7 +10630,7 @@
       <c r="M260" s="20"/>
       <c r="N260" s="20"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="C261" s="35"/>
       <c r="D261" s="35"/>
@@ -10645,7 +10644,7 @@
       <c r="M261" s="20"/>
       <c r="N261" s="20"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="C262" s="35"/>
       <c r="D262" s="35"/>
@@ -10659,7 +10658,7 @@
       <c r="M262" s="20"/>
       <c r="N262" s="20"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="C263" s="35"/>
       <c r="D263" s="35"/>
@@ -10673,7 +10672,7 @@
       <c r="M263" s="20"/>
       <c r="N263" s="20"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="C264" s="35"/>
       <c r="D264" s="35"/>
@@ -10687,7 +10686,7 @@
       <c r="M264" s="20"/>
       <c r="N264" s="20"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="C265" s="35"/>
       <c r="D265" s="35"/>
@@ -10701,7 +10700,7 @@
       <c r="M265" s="20"/>
       <c r="N265" s="20"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="C266" s="35"/>
       <c r="D266" s="35"/>
@@ -10715,7 +10714,7 @@
       <c r="M266" s="20"/>
       <c r="N266" s="20"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="C267" s="35"/>
       <c r="D267" s="35"/>
@@ -10729,7 +10728,7 @@
       <c r="M267" s="20"/>
       <c r="N267" s="20"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="C268" s="35"/>
       <c r="D268" s="35"/>
@@ -10743,7 +10742,7 @@
       <c r="M268" s="20"/>
       <c r="N268" s="20"/>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="C269" s="35"/>
       <c r="D269" s="35"/>
@@ -10757,7 +10756,7 @@
       <c r="M269" s="20"/>
       <c r="N269" s="20"/>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="C270" s="35"/>
       <c r="D270" s="35"/>
@@ -10771,7 +10770,7 @@
       <c r="M270" s="20"/>
       <c r="N270" s="20"/>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="C271" s="35"/>
       <c r="D271" s="35"/>
@@ -10785,7 +10784,7 @@
       <c r="M271" s="20"/>
       <c r="N271" s="20"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="C272" s="35"/>
       <c r="D272" s="35"/>
@@ -10799,7 +10798,7 @@
       <c r="M272" s="20"/>
       <c r="N272" s="20"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="C273" s="35"/>
       <c r="D273" s="35"/>
@@ -10813,7 +10812,7 @@
       <c r="M273" s="20"/>
       <c r="N273" s="20"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="C274" s="35"/>
       <c r="D274" s="35"/>
@@ -10827,7 +10826,7 @@
       <c r="M274" s="20"/>
       <c r="N274" s="20"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="C275" s="35"/>
       <c r="D275" s="35"/>
@@ -10841,7 +10840,7 @@
       <c r="M275" s="20"/>
       <c r="N275" s="20"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="C276" s="35"/>
       <c r="D276" s="35"/>
@@ -10855,7 +10854,7 @@
       <c r="M276" s="20"/>
       <c r="N276" s="20"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="C277" s="35"/>
       <c r="D277" s="35"/>
@@ -10869,7 +10868,7 @@
       <c r="M277" s="20"/>
       <c r="N277" s="20"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="C278" s="35"/>
       <c r="D278" s="35"/>
@@ -10883,7 +10882,7 @@
       <c r="M278" s="20"/>
       <c r="N278" s="20"/>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="C279" s="35"/>
       <c r="D279" s="35"/>
@@ -10897,7 +10896,7 @@
       <c r="M279" s="20"/>
       <c r="N279" s="20"/>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="C280" s="35"/>
       <c r="D280" s="35"/>
@@ -10911,7 +10910,7 @@
       <c r="M280" s="20"/>
       <c r="N280" s="20"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="C281" s="35"/>
       <c r="D281" s="35"/>
@@ -10925,7 +10924,7 @@
       <c r="M281" s="20"/>
       <c r="N281" s="20"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="C282" s="35"/>
       <c r="D282" s="35"/>
@@ -10939,7 +10938,7 @@
       <c r="M282" s="20"/>
       <c r="N282" s="20"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="C283" s="35"/>
       <c r="D283" s="35"/>
@@ -10953,7 +10952,7 @@
       <c r="M283" s="20"/>
       <c r="N283" s="20"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="C284" s="35"/>
       <c r="D284" s="35"/>
@@ -10967,7 +10966,7 @@
       <c r="M284" s="20"/>
       <c r="N284" s="20"/>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="C285" s="35"/>
       <c r="D285" s="35"/>
@@ -10981,7 +10980,7 @@
       <c r="M285" s="20"/>
       <c r="N285" s="20"/>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="C286" s="35"/>
       <c r="D286" s="35"/>
@@ -10995,7 +10994,7 @@
       <c r="M286" s="20"/>
       <c r="N286" s="20"/>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="C287" s="35"/>
       <c r="D287" s="35"/>
@@ -11009,7 +11008,7 @@
       <c r="M287" s="20"/>
       <c r="N287" s="20"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="C288" s="35"/>
       <c r="D288" s="35"/>
@@ -11023,7 +11022,7 @@
       <c r="M288" s="20"/>
       <c r="N288" s="20"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="C289" s="35"/>
       <c r="D289" s="35"/>
@@ -11037,7 +11036,7 @@
       <c r="M289" s="20"/>
       <c r="N289" s="20"/>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="C290" s="35"/>
       <c r="D290" s="35"/>
@@ -11051,7 +11050,7 @@
       <c r="M290" s="20"/>
       <c r="N290" s="20"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="C291" s="35"/>
       <c r="D291" s="35"/>
@@ -11065,7 +11064,7 @@
       <c r="M291" s="20"/>
       <c r="N291" s="20"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="C292" s="35"/>
       <c r="D292" s="35"/>
@@ -11079,7 +11078,7 @@
       <c r="M292" s="20"/>
       <c r="N292" s="20"/>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="C293" s="35"/>
       <c r="D293" s="35"/>
@@ -11093,7 +11092,7 @@
       <c r="M293" s="20"/>
       <c r="N293" s="20"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="C294" s="35"/>
       <c r="D294" s="35"/>
@@ -11107,7 +11106,7 @@
       <c r="M294" s="20"/>
       <c r="N294" s="20"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="C295" s="35"/>
       <c r="D295" s="35"/>
@@ -11121,7 +11120,7 @@
       <c r="M295" s="20"/>
       <c r="N295" s="20"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="C296" s="35"/>
       <c r="D296" s="35"/>
@@ -11135,7 +11134,7 @@
       <c r="M296" s="20"/>
       <c r="N296" s="20"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="C297" s="35"/>
       <c r="D297" s="35"/>
@@ -11149,7 +11148,7 @@
       <c r="M297" s="20"/>
       <c r="N297" s="20"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="C298" s="35"/>
       <c r="D298" s="35"/>
@@ -11163,7 +11162,7 @@
       <c r="M298" s="20"/>
       <c r="N298" s="20"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="C299" s="35"/>
       <c r="D299" s="35"/>
@@ -11177,7 +11176,7 @@
       <c r="M299" s="20"/>
       <c r="N299" s="20"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="C300" s="35"/>
       <c r="D300" s="35"/>
@@ -11191,7 +11190,7 @@
       <c r="M300" s="20"/>
       <c r="N300" s="20"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="C301" s="35"/>
       <c r="D301" s="35"/>
@@ -11205,7 +11204,7 @@
       <c r="M301" s="20"/>
       <c r="N301" s="20"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="C302" s="35"/>
       <c r="D302" s="35"/>
@@ -11219,7 +11218,7 @@
       <c r="M302" s="20"/>
       <c r="N302" s="20"/>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="C303" s="35"/>
       <c r="D303" s="35"/>
@@ -11233,7 +11232,7 @@
       <c r="M303" s="20"/>
       <c r="N303" s="20"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="C304" s="35"/>
       <c r="D304" s="35"/>
@@ -11247,7 +11246,7 @@
       <c r="M304" s="20"/>
       <c r="N304" s="20"/>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="C305" s="35"/>
       <c r="D305" s="35"/>
@@ -11261,7 +11260,7 @@
       <c r="M305" s="20"/>
       <c r="N305" s="20"/>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C306" s="35"/>
       <c r="D306" s="35"/>
       <c r="F306" s="35"/>
@@ -11274,7 +11273,7 @@
       <c r="M306" s="20"/>
       <c r="N306" s="20"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C307" s="35"/>
       <c r="D307" s="35"/>
       <c r="F307" s="35"/>
@@ -11287,7 +11286,7 @@
       <c r="M307" s="20"/>
       <c r="N307" s="20"/>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C308" s="35"/>
       <c r="D308" s="35"/>
       <c r="F308" s="35"/>
@@ -11300,7 +11299,7 @@
       <c r="M308" s="20"/>
       <c r="N308" s="20"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C309" s="35"/>
       <c r="D309" s="35"/>
       <c r="F309" s="35"/>
@@ -11313,7 +11312,7 @@
       <c r="M309" s="20"/>
       <c r="N309" s="20"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C310" s="35"/>
       <c r="D310" s="35"/>
       <c r="F310" s="35"/>
@@ -11326,7 +11325,7 @@
       <c r="M310" s="20"/>
       <c r="N310" s="20"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C311" s="35"/>
       <c r="D311" s="35"/>
       <c r="F311" s="35"/>
@@ -11339,7 +11338,7 @@
       <c r="M311" s="20"/>
       <c r="N311" s="20"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C312" s="35"/>
       <c r="D312" s="35"/>
       <c r="F312" s="35"/>
@@ -11352,7 +11351,7 @@
       <c r="M312" s="20"/>
       <c r="N312" s="20"/>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C313" s="35"/>
       <c r="D313" s="35"/>
       <c r="F313" s="35"/>
@@ -11365,7 +11364,7 @@
       <c r="M313" s="20"/>
       <c r="N313" s="20"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C314" s="35"/>
       <c r="D314" s="35"/>
       <c r="F314" s="35"/>
@@ -11378,7 +11377,7 @@
       <c r="M314" s="20"/>
       <c r="N314" s="20"/>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C315" s="35"/>
       <c r="D315" s="35"/>
       <c r="F315" s="35"/>
@@ -11391,7 +11390,7 @@
       <c r="M315" s="20"/>
       <c r="N315" s="20"/>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C316" s="35"/>
       <c r="D316" s="35"/>
       <c r="F316" s="35"/>
@@ -11404,7 +11403,7 @@
       <c r="M316" s="20"/>
       <c r="N316" s="20"/>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C317" s="35"/>
       <c r="D317" s="35"/>
       <c r="F317" s="35"/>
@@ -11417,7 +11416,7 @@
       <c r="M317" s="20"/>
       <c r="N317" s="20"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C318" s="35"/>
       <c r="D318" s="35"/>
       <c r="F318" s="35"/>
@@ -11430,7 +11429,7 @@
       <c r="M318" s="20"/>
       <c r="N318" s="20"/>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C319" s="35"/>
       <c r="D319" s="35"/>
       <c r="F319" s="35"/>
@@ -11443,7 +11442,7 @@
       <c r="M319" s="20"/>
       <c r="N319" s="20"/>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C320" s="35"/>
       <c r="D320" s="35"/>
       <c r="F320" s="35"/>
@@ -11456,7 +11455,7 @@
       <c r="M320" s="20"/>
       <c r="N320" s="20"/>
     </row>
-    <row r="321" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C321" s="35"/>
       <c r="D321" s="35"/>
       <c r="F321" s="35"/>
@@ -11469,7 +11468,7 @@
       <c r="M321" s="20"/>
       <c r="N321" s="20"/>
     </row>
-    <row r="322" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C322" s="35"/>
       <c r="D322" s="35"/>
       <c r="F322" s="35"/>
@@ -11482,7 +11481,7 @@
       <c r="M322" s="20"/>
       <c r="N322" s="20"/>
     </row>
-    <row r="323" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C323" s="35"/>
       <c r="D323" s="35"/>
       <c r="F323" s="35"/>
@@ -11495,7 +11494,7 @@
       <c r="M323" s="20"/>
       <c r="N323" s="20"/>
     </row>
-    <row r="324" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C324" s="35"/>
       <c r="D324" s="35"/>
       <c r="F324" s="35"/>
@@ -11508,7 +11507,7 @@
       <c r="M324" s="20"/>
       <c r="N324" s="20"/>
     </row>
-    <row r="325" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C325" s="35"/>
       <c r="D325" s="35"/>
       <c r="F325" s="35"/>
@@ -11521,7 +11520,7 @@
       <c r="M325" s="20"/>
       <c r="N325" s="20"/>
     </row>
-    <row r="326" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C326" s="35"/>
       <c r="D326" s="35"/>
       <c r="F326" s="35"/>
@@ -11534,7 +11533,7 @@
       <c r="M326" s="20"/>
       <c r="N326" s="20"/>
     </row>
-    <row r="327" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C327" s="35"/>
       <c r="D327" s="35"/>
       <c r="F327" s="35"/>
@@ -11547,7 +11546,7 @@
       <c r="M327" s="20"/>
       <c r="N327" s="20"/>
     </row>
-    <row r="328" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C328" s="35"/>
       <c r="D328" s="35"/>
       <c r="F328" s="35"/>
@@ -11560,7 +11559,7 @@
       <c r="M328" s="20"/>
       <c r="N328" s="20"/>
     </row>
-    <row r="329" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C329" s="35"/>
       <c r="D329" s="35"/>
       <c r="F329" s="35"/>
@@ -11573,7 +11572,7 @@
       <c r="M329" s="20"/>
       <c r="N329" s="20"/>
     </row>
-    <row r="330" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C330" s="35"/>
       <c r="D330" s="35"/>
       <c r="F330" s="35"/>
@@ -11586,7 +11585,7 @@
       <c r="M330" s="20"/>
       <c r="N330" s="20"/>
     </row>
-    <row r="331" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C331" s="35"/>
       <c r="D331" s="35"/>
       <c r="F331" s="35"/>
@@ -11599,7 +11598,7 @@
       <c r="M331" s="20"/>
       <c r="N331" s="20"/>
     </row>
-    <row r="332" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C332" s="35"/>
       <c r="D332" s="35"/>
       <c r="F332" s="35"/>
@@ -11612,7 +11611,7 @@
       <c r="M332" s="20"/>
       <c r="N332" s="20"/>
     </row>
-    <row r="333" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C333" s="35"/>
       <c r="D333" s="35"/>
       <c r="F333" s="35"/>
@@ -11625,7 +11624,7 @@
       <c r="M333" s="20"/>
       <c r="N333" s="20"/>
     </row>
-    <row r="334" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C334" s="35"/>
       <c r="D334" s="35"/>
       <c r="F334" s="35"/>
@@ -11638,7 +11637,7 @@
       <c r="M334" s="20"/>
       <c r="N334" s="20"/>
     </row>
-    <row r="335" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C335" s="35"/>
       <c r="D335" s="35"/>
       <c r="F335" s="35"/>
@@ -11651,7 +11650,7 @@
       <c r="M335" s="20"/>
       <c r="N335" s="20"/>
     </row>
-    <row r="336" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C336" s="35"/>
       <c r="D336" s="35"/>
       <c r="F336" s="35"/>
@@ -11664,7 +11663,7 @@
       <c r="M336" s="20"/>
       <c r="N336" s="20"/>
     </row>
-    <row r="337" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C337" s="35"/>
       <c r="D337" s="35"/>
       <c r="F337" s="35"/>
@@ -11677,7 +11676,7 @@
       <c r="M337" s="20"/>
       <c r="N337" s="20"/>
     </row>
-    <row r="338" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C338" s="35"/>
       <c r="D338" s="35"/>
       <c r="F338" s="35"/>
@@ -11690,7 +11689,7 @@
       <c r="M338" s="20"/>
       <c r="N338" s="20"/>
     </row>
-    <row r="339" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C339" s="35"/>
       <c r="D339" s="35"/>
       <c r="F339" s="35"/>
@@ -11703,7 +11702,7 @@
       <c r="M339" s="20"/>
       <c r="N339" s="20"/>
     </row>
-    <row r="340" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C340" s="35"/>
       <c r="D340" s="35"/>
       <c r="F340" s="35"/>
@@ -11716,7 +11715,7 @@
       <c r="M340" s="20"/>
       <c r="N340" s="20"/>
     </row>
-    <row r="341" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C341" s="35"/>
       <c r="D341" s="35"/>
       <c r="F341" s="35"/>
@@ -11729,7 +11728,7 @@
       <c r="M341" s="20"/>
       <c r="N341" s="20"/>
     </row>
-    <row r="342" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C342" s="35"/>
       <c r="D342" s="35"/>
       <c r="F342" s="35"/>
@@ -11742,7 +11741,7 @@
       <c r="M342" s="20"/>
       <c r="N342" s="20"/>
     </row>
-    <row r="343" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C343" s="35"/>
       <c r="D343" s="35"/>
       <c r="F343" s="35"/>
@@ -11755,7 +11754,7 @@
       <c r="M343" s="20"/>
       <c r="N343" s="20"/>
     </row>
-    <row r="344" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C344" s="35"/>
       <c r="D344" s="35"/>
       <c r="F344" s="35"/>
@@ -11768,7 +11767,7 @@
       <c r="M344" s="20"/>
       <c r="N344" s="20"/>
     </row>
-    <row r="345" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C345" s="35"/>
       <c r="D345" s="35"/>
       <c r="F345" s="35"/>
@@ -11781,7 +11780,7 @@
       <c r="M345" s="20"/>
       <c r="N345" s="20"/>
     </row>
-    <row r="346" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C346" s="35"/>
       <c r="D346" s="35"/>
       <c r="F346" s="35"/>
@@ -11794,7 +11793,7 @@
       <c r="M346" s="20"/>
       <c r="N346" s="20"/>
     </row>
-    <row r="347" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C347" s="35"/>
       <c r="D347" s="35"/>
       <c r="F347" s="35"/>
@@ -11807,7 +11806,7 @@
       <c r="M347" s="20"/>
       <c r="N347" s="20"/>
     </row>
-    <row r="348" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C348" s="35"/>
       <c r="D348" s="35"/>
       <c r="F348" s="35"/>
@@ -11820,7 +11819,7 @@
       <c r="M348" s="20"/>
       <c r="N348" s="20"/>
     </row>
-    <row r="349" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C349" s="35"/>
       <c r="D349" s="35"/>
       <c r="F349" s="35"/>
@@ -11833,7 +11832,7 @@
       <c r="M349" s="20"/>
       <c r="N349" s="20"/>
     </row>
-    <row r="350" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C350" s="35"/>
       <c r="D350" s="35"/>
       <c r="F350" s="35"/>
@@ -11846,7 +11845,7 @@
       <c r="M350" s="20"/>
       <c r="N350" s="20"/>
     </row>
-    <row r="351" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C351" s="35"/>
       <c r="D351" s="35"/>
       <c r="F351" s="35"/>
@@ -11859,7 +11858,7 @@
       <c r="M351" s="20"/>
       <c r="N351" s="20"/>
     </row>
-    <row r="352" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C352" s="35"/>
       <c r="D352" s="35"/>
       <c r="F352" s="35"/>
@@ -11872,7 +11871,7 @@
       <c r="M352" s="20"/>
       <c r="N352" s="20"/>
     </row>
-    <row r="353" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C353" s="35"/>
       <c r="D353" s="35"/>
       <c r="F353" s="35"/>
@@ -11885,7 +11884,7 @@
       <c r="M353" s="20"/>
       <c r="N353" s="20"/>
     </row>
-    <row r="354" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C354" s="35"/>
       <c r="D354" s="35"/>
       <c r="F354" s="35"/>
@@ -11898,7 +11897,7 @@
       <c r="M354" s="20"/>
       <c r="N354" s="20"/>
     </row>
-    <row r="355" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C355" s="35"/>
       <c r="D355" s="35"/>
       <c r="F355" s="35"/>
@@ -11911,7 +11910,7 @@
       <c r="M355" s="20"/>
       <c r="N355" s="20"/>
     </row>
-    <row r="356" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C356" s="35"/>
       <c r="D356" s="35"/>
       <c r="F356" s="35"/>
@@ -11924,7 +11923,7 @@
       <c r="M356" s="20"/>
       <c r="N356" s="20"/>
     </row>
-    <row r="357" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C357" s="35"/>
       <c r="D357" s="35"/>
       <c r="F357" s="35"/>
@@ -11937,7 +11936,7 @@
       <c r="M357" s="20"/>
       <c r="N357" s="20"/>
     </row>
-    <row r="358" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C358" s="35"/>
       <c r="D358" s="35"/>
       <c r="F358" s="35"/>
@@ -11950,7 +11949,7 @@
       <c r="M358" s="20"/>
       <c r="N358" s="20"/>
     </row>
-    <row r="359" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C359" s="35"/>
       <c r="D359" s="35"/>
       <c r="F359" s="35"/>
@@ -11963,7 +11962,7 @@
       <c r="M359" s="20"/>
       <c r="N359" s="20"/>
     </row>
-    <row r="360" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C360" s="35"/>
       <c r="D360" s="35"/>
       <c r="F360" s="35"/>
@@ -11976,7 +11975,7 @@
       <c r="M360" s="20"/>
       <c r="N360" s="20"/>
     </row>
-    <row r="361" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C361" s="35"/>
       <c r="D361" s="35"/>
       <c r="F361" s="35"/>
@@ -11989,7 +11988,7 @@
       <c r="M361" s="20"/>
       <c r="N361" s="20"/>
     </row>
-    <row r="362" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C362" s="35"/>
       <c r="D362" s="35"/>
       <c r="F362" s="35"/>
@@ -12002,7 +12001,7 @@
       <c r="M362" s="20"/>
       <c r="N362" s="20"/>
     </row>
-    <row r="363" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C363" s="35"/>
       <c r="D363" s="35"/>
       <c r="F363" s="35"/>
@@ -12015,7 +12014,7 @@
       <c r="M363" s="20"/>
       <c r="N363" s="20"/>
     </row>
-    <row r="364" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C364" s="35"/>
       <c r="D364" s="35"/>
       <c r="F364" s="35"/>
@@ -12028,7 +12027,7 @@
       <c r="M364" s="20"/>
       <c r="N364" s="20"/>
     </row>
-    <row r="365" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C365" s="35"/>
       <c r="D365" s="35"/>
       <c r="F365" s="35"/>
@@ -12041,7 +12040,7 @@
       <c r="M365" s="20"/>
       <c r="N365" s="20"/>
     </row>
-    <row r="366" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C366" s="35"/>
       <c r="D366" s="35"/>
       <c r="F366" s="35"/>
@@ -12054,7 +12053,7 @@
       <c r="M366" s="20"/>
       <c r="N366" s="20"/>
     </row>
-    <row r="367" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C367" s="35"/>
       <c r="D367" s="35"/>
       <c r="F367" s="35"/>
@@ -12067,7 +12066,7 @@
       <c r="M367" s="20"/>
       <c r="N367" s="20"/>
     </row>
-    <row r="368" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C368" s="35"/>
       <c r="D368" s="35"/>
       <c r="F368" s="35"/>
@@ -12080,7 +12079,7 @@
       <c r="M368" s="20"/>
       <c r="N368" s="20"/>
     </row>
-    <row r="369" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C369" s="35"/>
       <c r="D369" s="35"/>
       <c r="F369" s="35"/>
@@ -12093,7 +12092,7 @@
       <c r="M369" s="20"/>
       <c r="N369" s="20"/>
     </row>
-    <row r="370" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C370" s="35"/>
       <c r="D370" s="35"/>
       <c r="F370" s="35"/>
@@ -12106,7 +12105,7 @@
       <c r="M370" s="20"/>
       <c r="N370" s="20"/>
     </row>
-    <row r="371" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C371" s="35"/>
       <c r="D371" s="35"/>
       <c r="F371" s="35"/>
@@ -12119,7 +12118,7 @@
       <c r="M371" s="20"/>
       <c r="N371" s="20"/>
     </row>
-    <row r="372" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C372" s="35"/>
       <c r="D372" s="35"/>
       <c r="F372" s="35"/>
@@ -12132,7 +12131,7 @@
       <c r="M372" s="20"/>
       <c r="N372" s="20"/>
     </row>
-    <row r="373" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C373" s="35"/>
       <c r="D373" s="35"/>
       <c r="F373" s="35"/>
@@ -12145,7 +12144,7 @@
       <c r="M373" s="20"/>
       <c r="N373" s="20"/>
     </row>
-    <row r="374" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C374" s="35"/>
       <c r="D374" s="35"/>
       <c r="F374" s="35"/>
@@ -12158,7 +12157,7 @@
       <c r="M374" s="20"/>
       <c r="N374" s="20"/>
     </row>
-    <row r="375" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C375" s="35"/>
       <c r="D375" s="35"/>
       <c r="F375" s="35"/>
@@ -12171,7 +12170,7 @@
       <c r="M375" s="20"/>
       <c r="N375" s="20"/>
     </row>
-    <row r="376" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C376" s="35"/>
       <c r="D376" s="35"/>
       <c r="F376" s="35"/>
@@ -12184,7 +12183,7 @@
       <c r="M376" s="20"/>
       <c r="N376" s="20"/>
     </row>
-    <row r="377" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C377" s="35"/>
       <c r="D377" s="35"/>
       <c r="F377" s="35"/>
@@ -12197,7 +12196,7 @@
       <c r="M377" s="20"/>
       <c r="N377" s="20"/>
     </row>
-    <row r="378" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C378" s="35"/>
       <c r="D378" s="35"/>
       <c r="F378" s="35"/>
@@ -12210,7 +12209,7 @@
       <c r="M378" s="20"/>
       <c r="N378" s="20"/>
     </row>
-    <row r="379" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C379" s="35"/>
       <c r="D379" s="35"/>
       <c r="F379" s="35"/>
@@ -12223,7 +12222,7 @@
       <c r="M379" s="20"/>
       <c r="N379" s="20"/>
     </row>
-    <row r="380" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C380" s="35"/>
       <c r="D380" s="35"/>
       <c r="F380" s="35"/>
@@ -12236,7 +12235,7 @@
       <c r="M380" s="20"/>
       <c r="N380" s="20"/>
     </row>
-    <row r="381" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C381" s="35"/>
       <c r="D381" s="35"/>
       <c r="F381" s="35"/>
@@ -12249,7 +12248,7 @@
       <c r="M381" s="20"/>
       <c r="N381" s="20"/>
     </row>
-    <row r="382" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C382" s="35"/>
       <c r="D382" s="35"/>
       <c r="F382" s="35"/>
@@ -12262,7 +12261,7 @@
       <c r="M382" s="20"/>
       <c r="N382" s="20"/>
     </row>
-    <row r="383" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C383" s="35"/>
       <c r="D383" s="35"/>
       <c r="F383" s="35"/>
@@ -12275,7 +12274,7 @@
       <c r="M383" s="20"/>
       <c r="N383" s="20"/>
     </row>
-    <row r="384" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C384" s="35"/>
       <c r="D384" s="35"/>
       <c r="F384" s="35"/>
@@ -12288,7 +12287,7 @@
       <c r="M384" s="20"/>
       <c r="N384" s="20"/>
     </row>
-    <row r="385" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C385" s="35"/>
       <c r="D385" s="35"/>
       <c r="F385" s="35"/>
@@ -12301,7 +12300,7 @@
       <c r="M385" s="20"/>
       <c r="N385" s="20"/>
     </row>
-    <row r="386" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C386" s="35"/>
       <c r="D386" s="35"/>
       <c r="F386" s="35"/>
@@ -12314,7 +12313,7 @@
       <c r="M386" s="20"/>
       <c r="N386" s="20"/>
     </row>
-    <row r="387" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C387" s="35"/>
       <c r="D387" s="35"/>
       <c r="F387" s="35"/>
@@ -12327,7 +12326,7 @@
       <c r="M387" s="20"/>
       <c r="N387" s="20"/>
     </row>
-    <row r="388" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C388" s="35"/>
       <c r="D388" s="35"/>
       <c r="F388" s="35"/>
@@ -12340,7 +12339,7 @@
       <c r="M388" s="20"/>
       <c r="N388" s="20"/>
     </row>
-    <row r="389" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C389" s="35"/>
       <c r="D389" s="35"/>
       <c r="F389" s="35"/>
@@ -12353,7 +12352,7 @@
       <c r="M389" s="20"/>
       <c r="N389" s="20"/>
     </row>
-    <row r="390" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C390" s="35"/>
       <c r="D390" s="35"/>
       <c r="F390" s="35"/>
@@ -12366,7 +12365,7 @@
       <c r="M390" s="20"/>
       <c r="N390" s="20"/>
     </row>
-    <row r="391" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C391" s="35"/>
       <c r="D391" s="35"/>
       <c r="F391" s="35"/>
@@ -12379,7 +12378,7 @@
       <c r="M391" s="20"/>
       <c r="N391" s="20"/>
     </row>
-    <row r="392" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C392" s="35"/>
       <c r="D392" s="35"/>
       <c r="F392" s="35"/>
@@ -12392,7 +12391,7 @@
       <c r="M392" s="20"/>
       <c r="N392" s="20"/>
     </row>
-    <row r="393" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C393" s="35"/>
       <c r="D393" s="35"/>
       <c r="F393" s="35"/>
@@ -12405,7 +12404,7 @@
       <c r="M393" s="20"/>
       <c r="N393" s="20"/>
     </row>
-    <row r="394" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C394" s="35"/>
       <c r="D394" s="35"/>
       <c r="F394" s="35"/>
@@ -12418,7 +12417,7 @@
       <c r="M394" s="20"/>
       <c r="N394" s="20"/>
     </row>
-    <row r="395" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C395" s="35"/>
       <c r="D395" s="35"/>
       <c r="F395" s="35"/>
@@ -12431,7 +12430,7 @@
       <c r="M395" s="20"/>
       <c r="N395" s="20"/>
     </row>
-    <row r="396" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C396" s="35"/>
       <c r="D396" s="35"/>
       <c r="F396" s="35"/>
@@ -12444,7 +12443,7 @@
       <c r="M396" s="20"/>
       <c r="N396" s="20"/>
     </row>
-    <row r="397" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C397" s="35"/>
       <c r="D397" s="35"/>
       <c r="F397" s="35"/>
@@ -12457,7 +12456,7 @@
       <c r="M397" s="20"/>
       <c r="N397" s="20"/>
     </row>
-    <row r="398" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C398" s="35"/>
       <c r="D398" s="35"/>
       <c r="F398" s="35"/>
@@ -12470,7 +12469,7 @@
       <c r="M398" s="20"/>
       <c r="N398" s="20"/>
     </row>
-    <row r="399" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C399" s="35"/>
       <c r="D399" s="35"/>
       <c r="F399" s="35"/>
@@ -12483,7 +12482,7 @@
       <c r="M399" s="20"/>
       <c r="N399" s="20"/>
     </row>
-    <row r="400" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C400" s="35"/>
       <c r="D400" s="35"/>
       <c r="F400" s="35"/>
@@ -12496,7 +12495,7 @@
       <c r="M400" s="20"/>
       <c r="N400" s="20"/>
     </row>
-    <row r="401" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C401" s="35"/>
       <c r="D401" s="35"/>
       <c r="F401" s="35"/>
@@ -12509,7 +12508,7 @@
       <c r="M401" s="20"/>
       <c r="N401" s="20"/>
     </row>
-    <row r="402" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C402" s="35"/>
       <c r="D402" s="35"/>
       <c r="F402" s="35"/>
@@ -12522,7 +12521,7 @@
       <c r="M402" s="20"/>
       <c r="N402" s="20"/>
     </row>
-    <row r="403" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C403" s="35"/>
       <c r="D403" s="35"/>
       <c r="F403" s="35"/>
@@ -12535,7 +12534,7 @@
       <c r="M403" s="20"/>
       <c r="N403" s="20"/>
     </row>
-    <row r="404" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C404" s="35"/>
       <c r="D404" s="35"/>
       <c r="F404" s="35"/>
@@ -12548,7 +12547,7 @@
       <c r="M404" s="20"/>
       <c r="N404" s="20"/>
     </row>
-    <row r="405" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C405" s="35"/>
       <c r="D405" s="35"/>
       <c r="F405" s="35"/>
@@ -12561,7 +12560,7 @@
       <c r="M405" s="20"/>
       <c r="N405" s="20"/>
     </row>
-    <row r="406" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C406" s="35"/>
       <c r="D406" s="35"/>
       <c r="F406" s="35"/>
@@ -12574,7 +12573,7 @@
       <c r="M406" s="20"/>
       <c r="N406" s="20"/>
     </row>
-    <row r="407" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C407" s="35"/>
       <c r="D407" s="35"/>
       <c r="F407" s="35"/>
@@ -12587,7 +12586,7 @@
       <c r="M407" s="20"/>
       <c r="N407" s="20"/>
     </row>
-    <row r="408" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C408" s="35"/>
       <c r="D408" s="35"/>
       <c r="F408" s="35"/>
@@ -12600,7 +12599,7 @@
       <c r="M408" s="20"/>
       <c r="N408" s="20"/>
     </row>
-    <row r="409" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C409" s="35"/>
       <c r="D409" s="35"/>
       <c r="F409" s="35"/>
@@ -12613,7 +12612,7 @@
       <c r="M409" s="20"/>
       <c r="N409" s="20"/>
     </row>
-    <row r="410" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C410" s="35"/>
       <c r="D410" s="35"/>
       <c r="F410" s="35"/>
@@ -12626,7 +12625,7 @@
       <c r="M410" s="20"/>
       <c r="N410" s="20"/>
     </row>
-    <row r="411" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C411" s="35"/>
       <c r="D411" s="35"/>
       <c r="F411" s="35"/>
@@ -12639,7 +12638,7 @@
       <c r="M411" s="20"/>
       <c r="N411" s="20"/>
     </row>
-    <row r="412" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C412" s="35"/>
       <c r="D412" s="35"/>
       <c r="F412" s="35"/>
@@ -12652,7 +12651,7 @@
       <c r="M412" s="20"/>
       <c r="N412" s="20"/>
     </row>
-    <row r="413" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C413" s="35"/>
       <c r="D413" s="35"/>
       <c r="F413" s="35"/>
@@ -12665,7 +12664,7 @@
       <c r="M413" s="20"/>
       <c r="N413" s="20"/>
     </row>
-    <row r="414" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C414" s="35"/>
       <c r="D414" s="35"/>
       <c r="F414" s="35"/>
@@ -12678,7 +12677,7 @@
       <c r="M414" s="20"/>
       <c r="N414" s="20"/>
     </row>
-    <row r="415" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C415" s="35"/>
       <c r="D415" s="35"/>
       <c r="F415" s="35"/>
@@ -12691,7 +12690,7 @@
       <c r="M415" s="20"/>
       <c r="N415" s="20"/>
     </row>
-    <row r="416" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C416" s="35"/>
       <c r="D416" s="35"/>
       <c r="F416" s="35"/>
@@ -12704,7 +12703,7 @@
       <c r="M416" s="20"/>
       <c r="N416" s="20"/>
     </row>
-    <row r="417" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C417" s="35"/>
       <c r="D417" s="35"/>
       <c r="F417" s="35"/>
@@ -12717,7 +12716,7 @@
       <c r="M417" s="20"/>
       <c r="N417" s="20"/>
     </row>
-    <row r="418" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C418" s="35"/>
       <c r="D418" s="35"/>
       <c r="F418" s="35"/>
@@ -12730,7 +12729,7 @@
       <c r="M418" s="20"/>
       <c r="N418" s="20"/>
     </row>
-    <row r="419" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C419" s="35"/>
       <c r="D419" s="35"/>
       <c r="F419" s="35"/>
@@ -12743,7 +12742,7 @@
       <c r="M419" s="20"/>
       <c r="N419" s="20"/>
     </row>
-    <row r="420" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C420" s="35"/>
       <c r="D420" s="35"/>
       <c r="F420" s="35"/>
@@ -12756,7 +12755,7 @@
       <c r="M420" s="20"/>
       <c r="N420" s="20"/>
     </row>
-    <row r="421" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C421" s="35"/>
       <c r="D421" s="35"/>
       <c r="F421" s="35"/>
@@ -12769,7 +12768,7 @@
       <c r="M421" s="20"/>
       <c r="N421" s="20"/>
     </row>
-    <row r="422" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C422" s="35"/>
       <c r="D422" s="35"/>
       <c r="F422" s="35"/>
@@ -12782,7 +12781,7 @@
       <c r="M422" s="20"/>
       <c r="N422" s="20"/>
     </row>
-    <row r="423" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C423" s="35"/>
       <c r="D423" s="35"/>
       <c r="F423" s="35"/>
@@ -12795,7 +12794,7 @@
       <c r="M423" s="20"/>
       <c r="N423" s="20"/>
     </row>
-    <row r="424" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C424" s="35"/>
       <c r="D424" s="35"/>
       <c r="F424" s="35"/>
@@ -12808,7 +12807,7 @@
       <c r="M424" s="20"/>
       <c r="N424" s="20"/>
     </row>
-    <row r="425" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C425" s="35"/>
       <c r="D425" s="35"/>
       <c r="F425" s="35"/>
@@ -12821,7 +12820,7 @@
       <c r="M425" s="20"/>
       <c r="N425" s="20"/>
     </row>
-    <row r="426" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C426" s="35"/>
       <c r="D426" s="35"/>
       <c r="F426" s="35"/>
@@ -12834,7 +12833,7 @@
       <c r="M426" s="20"/>
       <c r="N426" s="20"/>
     </row>
-    <row r="427" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C427" s="35"/>
       <c r="D427" s="35"/>
       <c r="F427" s="35"/>
@@ -12847,7 +12846,7 @@
       <c r="M427" s="20"/>
       <c r="N427" s="20"/>
     </row>
-    <row r="428" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C428" s="35"/>
       <c r="D428" s="35"/>
       <c r="F428" s="35"/>
@@ -12860,7 +12859,7 @@
       <c r="M428" s="20"/>
       <c r="N428" s="20"/>
     </row>
-    <row r="429" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C429" s="35"/>
       <c r="D429" s="35"/>
       <c r="F429" s="35"/>
@@ -12873,7 +12872,7 @@
       <c r="M429" s="20"/>
       <c r="N429" s="20"/>
     </row>
-    <row r="430" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C430" s="35"/>
       <c r="D430" s="35"/>
       <c r="F430" s="35"/>
@@ -12888,11 +12887,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -12907,6 +12901,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/ThermalExpansionSearch_Oct22.xlsx
+++ b/ThermalExpansionSearch_Oct22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83100D-0EED-1148-A94B-CD5A75B4017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710F57C-CEE3-C840-A8E2-E4CBBFAD09D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>CTE</t>
   </si>
   <si>
-    <t>10.1007-s10854-020-04470-9</t>
-  </si>
-  <si>
     <t>K^-1</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>DFT</t>
   </si>
   <si>
-    <t>10.1016-j.jallcom.2016.04.320</t>
-  </si>
-  <si>
     <t>FeCoCrNi2Al</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>F6</t>
   </si>
   <si>
-    <t>10.1016-j.apt.2020.12.019</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -468,9 +459,6 @@
     <t>T3</t>
   </si>
   <si>
-    <t>10.15407-mfint.37.07.0987</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -576,9 +564,6 @@
     <t>F9</t>
   </si>
   <si>
-    <t>10.1088-2515-7655-ac6f7e</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -675,9 +660,6 @@
     <t>Fe30 Co30 Ni30 Cr5 Mn5</t>
   </si>
   <si>
-    <t>10.1016-j.matchemphys.2021.124907</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -858,9 +840,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>10.1016-j.jallcom.2018.02.251</t>
-  </si>
-  <si>
     <t>CoCrFeNi</t>
   </si>
   <si>
@@ -1201,6 +1180,27 @@
   </si>
   <si>
     <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>10.1007/s10854-020-04470-9</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2016.04.320</t>
+  </si>
+  <si>
+    <t>10.1016/j.apt.2020.12.019</t>
+  </si>
+  <si>
+    <t>10.15407/mfint.37.07.0987</t>
+  </si>
+  <si>
+    <t>10.1088/2515-7655-ac6f7e</t>
+  </si>
+  <si>
+    <t>10.1016/j.matchemphys.2021.124907</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2018.02.251</t>
   </si>
 </sst>
 </file>
@@ -1884,33 +1884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1960,6 +1933,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2245,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2282,21 +2282,21 @@
       <c r="B2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2306,17 +2306,17 @@
       <c r="B3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,43 +2334,43 @@
       <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="61" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2381,19 +2381,19 @@
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="44"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2438,12 +2438,12 @@
       <c r="N7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="32" t="s">
         <v>87</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="R7" s="24" t="s">
         <v>44</v>
@@ -2451,35 +2451,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="67"/>
+      <c r="N8" s="58"/>
       <c r="O8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2579,7 +2579,7 @@
         <v>88</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O10" s="20"/>
       <c r="P10">
@@ -2624,7 +2624,7 @@
         <v>88</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O11" s="20"/>
       <c r="P11">
@@ -2669,7 +2669,7 @@
         <v>88</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12">
@@ -2714,7 +2714,7 @@
         <v>88</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13">
@@ -2759,7 +2759,7 @@
         <v>88</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O14" s="20"/>
       <c r="P14">
@@ -2804,7 +2804,7 @@
         <v>88</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O15" s="20"/>
       <c r="P15">
@@ -2842,13 +2842,13 @@
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M16" s="34" t="s">
         <v>88</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -2883,13 +2883,13 @@
       </c>
       <c r="K17" s="39"/>
       <c r="L17" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M17" s="34" t="s">
         <v>88</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2923,13 +2923,13 @@
       </c>
       <c r="K18" s="39"/>
       <c r="L18" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M18" s="34" t="s">
         <v>88</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -2963,18 +2963,18 @@
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M19" s="34" t="s">
         <v>88</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -3003,18 +3003,18 @@
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M20" s="34" t="s">
         <v>88</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -3043,34 +3043,34 @@
       </c>
       <c r="K21" s="39"/>
       <c r="L21" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M21" s="34" t="s">
         <v>88</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="40">
@@ -3081,34 +3081,34 @@
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M22" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="40">
@@ -3119,34 +3119,34 @@
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M23" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="40">
@@ -3157,34 +3157,34 @@
       </c>
       <c r="K24" s="39"/>
       <c r="L24" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M24" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="40">
@@ -3195,34 +3195,34 @@
       </c>
       <c r="K25" s="39"/>
       <c r="L25" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M25" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="40">
@@ -3233,34 +3233,34 @@
       </c>
       <c r="K26" s="39"/>
       <c r="L26" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="40">
@@ -3271,30 +3271,30 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M27" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>89</v>
@@ -3311,30 +3311,30 @@
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>102</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>89</v>
@@ -3351,30 +3351,30 @@
       </c>
       <c r="K29" s="39"/>
       <c r="L29" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>102</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>89</v>
@@ -3391,27 +3391,27 @@
       </c>
       <c r="K30" s="39"/>
       <c r="L30" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>102</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="34" t="s">
@@ -3429,27 +3429,27 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>117</v>
-      </c>
       <c r="D32" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="34" t="s">
@@ -3467,27 +3467,27 @@
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="34" t="s">
@@ -3505,27 +3505,27 @@
       </c>
       <c r="K33" s="39"/>
       <c r="L33" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="34" t="s">
@@ -3543,27 +3543,27 @@
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>117</v>
-      </c>
       <c r="D35" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="34" t="s">
@@ -3581,27 +3581,27 @@
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="34" t="s">
@@ -3619,34 +3619,34 @@
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="40">
@@ -3657,34 +3657,34 @@
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="40">
@@ -3695,34 +3695,34 @@
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="40">
@@ -3733,34 +3733,34 @@
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="40">
@@ -3771,34 +3771,34 @@
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="40">
@@ -3809,34 +3809,34 @@
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="34"/>
       <c r="I42" s="40">
@@ -3847,34 +3847,34 @@
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43" s="34"/>
       <c r="I43" s="40">
@@ -3885,34 +3885,34 @@
       </c>
       <c r="K43" s="33"/>
       <c r="L43" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="40">
@@ -3923,34 +3923,34 @@
       </c>
       <c r="K44" s="33"/>
       <c r="L44" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="40">
@@ -3961,34 +3961,34 @@
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="40">
@@ -3999,34 +3999,34 @@
       </c>
       <c r="K46" s="33"/>
       <c r="L46" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="40">
@@ -4037,34 +4037,34 @@
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="40">
@@ -4075,34 +4075,34 @@
       </c>
       <c r="K48" s="33"/>
       <c r="L48" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N48" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="34"/>
       <c r="E49" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="40">
@@ -4113,34 +4113,34 @@
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H50" s="34"/>
       <c r="I50" s="40">
@@ -4151,34 +4151,34 @@
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" s="34"/>
       <c r="I51" s="40">
@@ -4189,34 +4189,34 @@
       </c>
       <c r="K51" s="33"/>
       <c r="L51" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M51" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N51" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F52" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H52" s="34"/>
       <c r="I52" s="40">
@@ -4227,34 +4227,34 @@
       </c>
       <c r="K52" s="33"/>
       <c r="L52" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M52" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F53" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="40">
@@ -4265,34 +4265,34 @@
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M53" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="40">
@@ -4303,34 +4303,34 @@
       </c>
       <c r="K54" s="33"/>
       <c r="L54" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M54" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F55" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H55" s="34"/>
       <c r="I55" s="40">
@@ -4341,34 +4341,34 @@
       </c>
       <c r="K55" s="33"/>
       <c r="L55" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M55" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N55" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F56" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" s="34"/>
       <c r="I56" s="40">
@@ -4379,34 +4379,34 @@
       </c>
       <c r="K56" s="33"/>
       <c r="L56" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N56" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="40">
@@ -4417,34 +4417,34 @@
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M57" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="34"/>
       <c r="E58" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H58" s="34"/>
       <c r="I58" s="40">
@@ -4455,34 +4455,34 @@
       </c>
       <c r="K58" s="33"/>
       <c r="L58" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="34"/>
       <c r="E59" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H59" s="34"/>
       <c r="I59" s="40">
@@ -4493,34 +4493,34 @@
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H60" s="34"/>
       <c r="I60" s="40">
@@ -4531,34 +4531,34 @@
       </c>
       <c r="K60" s="33"/>
       <c r="L60" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C61" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H61" s="34"/>
       <c r="I61" s="40">
@@ -4569,34 +4569,34 @@
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M61" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H62" s="34"/>
       <c r="I62" s="40">
@@ -4607,30 +4607,30 @@
       </c>
       <c r="K62" s="33"/>
       <c r="L62" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>89</v>
@@ -4647,30 +4647,30 @@
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N63" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>89</v>
@@ -4687,30 +4687,30 @@
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F65" s="34" t="s">
         <v>89</v>
@@ -4727,30 +4727,30 @@
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M65" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N65" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>89</v>
@@ -4767,30 +4767,30 @@
       </c>
       <c r="K66" s="33"/>
       <c r="L66" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N66" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>89</v>
@@ -4807,30 +4807,30 @@
       </c>
       <c r="K67" s="33"/>
       <c r="L67" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N67" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>89</v>
@@ -4847,30 +4847,30 @@
       </c>
       <c r="K68" s="33"/>
       <c r="L68" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N68" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F69" s="34" t="s">
         <v>89</v>
@@ -4887,30 +4887,30 @@
       </c>
       <c r="K69" s="33"/>
       <c r="L69" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M69" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N69" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F70" s="34" t="s">
         <v>89</v>
@@ -4927,30 +4927,30 @@
       </c>
       <c r="K70" s="33"/>
       <c r="L70" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N70" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F71" s="34" t="s">
         <v>89</v>
@@ -4967,30 +4967,30 @@
       </c>
       <c r="K71" s="33"/>
       <c r="L71" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N71" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>89</v>
@@ -5007,30 +5007,30 @@
       </c>
       <c r="K72" s="33"/>
       <c r="L72" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N72" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F73" s="34" t="s">
         <v>89</v>
@@ -5047,30 +5047,30 @@
       </c>
       <c r="K73" s="33"/>
       <c r="L73" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M73" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N73" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>89</v>
@@ -5087,30 +5087,30 @@
       </c>
       <c r="K74" s="33"/>
       <c r="L74" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N74" s="20" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F75" s="34" t="s">
         <v>89</v>
@@ -5127,30 +5127,30 @@
       </c>
       <c r="K75" s="33"/>
       <c r="L75" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N75" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C76" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F76" s="34" t="s">
         <v>89</v>
@@ -5167,30 +5167,30 @@
       </c>
       <c r="K76" s="33"/>
       <c r="L76" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M76" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N76" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="34" t="s">
-        <v>212</v>
-      </c>
       <c r="D77" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F77" s="34" t="s">
         <v>89</v>
@@ -5207,30 +5207,30 @@
       </c>
       <c r="K77" s="33"/>
       <c r="L77" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N77" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C78" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>89</v>
@@ -5247,30 +5247,30 @@
       </c>
       <c r="K78" s="33"/>
       <c r="L78" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M78" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N78" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C79" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>89</v>
@@ -5287,30 +5287,30 @@
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M79" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N79" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F80" s="34" t="s">
         <v>89</v>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="K80" s="33"/>
       <c r="L80" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N80" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F81" s="34" t="s">
         <v>89</v>
@@ -5367,30 +5367,30 @@
       </c>
       <c r="K81" s="33"/>
       <c r="L81" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M81" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N81" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F82" s="34" t="s">
         <v>89</v>
@@ -5407,30 +5407,30 @@
       </c>
       <c r="K82" s="33"/>
       <c r="L82" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M82" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N82" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C83" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F83" s="34" t="s">
         <v>89</v>
@@ -5447,30 +5447,30 @@
       </c>
       <c r="K83" s="33"/>
       <c r="L83" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M83" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N83" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B84" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C84" s="34" t="s">
-        <v>212</v>
-      </c>
       <c r="D84" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F84" s="34" t="s">
         <v>89</v>
@@ -5487,30 +5487,30 @@
       </c>
       <c r="K84" s="33"/>
       <c r="L84" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M84" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N84" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F85" s="34" t="s">
         <v>89</v>
@@ -5527,30 +5527,30 @@
       </c>
       <c r="K85" s="33"/>
       <c r="L85" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M85" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N85" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F86" s="34" t="s">
         <v>89</v>
@@ -5567,30 +5567,30 @@
       </c>
       <c r="K86" s="33"/>
       <c r="L86" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M86" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N86" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C87" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>89</v>
@@ -5607,30 +5607,30 @@
       </c>
       <c r="K87" s="33"/>
       <c r="L87" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M87" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N87" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C88" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>89</v>
@@ -5647,30 +5647,30 @@
       </c>
       <c r="K88" s="33"/>
       <c r="L88" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N88" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>89</v>
@@ -5687,30 +5687,30 @@
       </c>
       <c r="K89" s="33"/>
       <c r="L89" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N89" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C90" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>89</v>
@@ -5727,30 +5727,30 @@
       </c>
       <c r="K90" s="33"/>
       <c r="L90" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M90" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N90" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B91" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>212</v>
-      </c>
       <c r="D91" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F91" s="34" t="s">
         <v>89</v>
@@ -5767,30 +5767,30 @@
       </c>
       <c r="K91" s="33"/>
       <c r="L91" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N91" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F92" s="34" t="s">
         <v>89</v>
@@ -5807,30 +5807,30 @@
       </c>
       <c r="K92" s="33"/>
       <c r="L92" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N92" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D93" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F93" s="34" t="s">
         <v>89</v>
@@ -5847,30 +5847,30 @@
       </c>
       <c r="K93" s="33"/>
       <c r="L93" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N93" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C94" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F94" s="34" t="s">
         <v>89</v>
@@ -5887,30 +5887,30 @@
       </c>
       <c r="K94" s="33"/>
       <c r="L94" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M94" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N94" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C95" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F95" s="34" t="s">
         <v>89</v>
@@ -5927,33 +5927,33 @@
       </c>
       <c r="K95" s="33"/>
       <c r="L95" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M95" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N95" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G96" s="34" t="s">
         <v>19</v>
@@ -5970,30 +5970,30 @@
         <v>46</v>
       </c>
       <c r="M96" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N96" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C97" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G97" s="34" t="s">
         <v>19</v>
@@ -6010,30 +6010,30 @@
         <v>46</v>
       </c>
       <c r="M97" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N97" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="34" t="s">
-        <v>212</v>
-      </c>
       <c r="D98" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G98" s="34" t="s">
         <v>19</v>
@@ -6050,30 +6050,30 @@
         <v>46</v>
       </c>
       <c r="M98" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N98" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D99" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G99" s="34" t="s">
         <v>19</v>
@@ -6090,30 +6090,30 @@
         <v>46</v>
       </c>
       <c r="M99" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N99" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D100" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G100" s="34" t="s">
         <v>19</v>
@@ -6130,30 +6130,30 @@
         <v>46</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N100" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G101" s="34" t="s">
         <v>19</v>
@@ -6170,30 +6170,30 @@
         <v>46</v>
       </c>
       <c r="M101" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C102" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G102" s="34" t="s">
         <v>19</v>
@@ -6210,30 +6210,30 @@
         <v>46</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N102" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G103" s="34" t="s">
         <v>19</v>
@@ -6248,30 +6248,30 @@
       <c r="K103" s="33"/>
       <c r="L103" s="41"/>
       <c r="M103" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N103" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G104" s="34" t="s">
         <v>19</v>
@@ -6286,30 +6286,30 @@
       <c r="K104" s="33"/>
       <c r="L104" s="41"/>
       <c r="M104" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N104" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B105" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="34" t="s">
-        <v>212</v>
-      </c>
       <c r="D105" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G105" s="34" t="s">
         <v>19</v>
@@ -6324,30 +6324,30 @@
       <c r="K105" s="33"/>
       <c r="L105" s="41"/>
       <c r="M105" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N105" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C106" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D106" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F106" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G106" s="34" t="s">
         <v>19</v>
@@ -6362,30 +6362,30 @@
       <c r="K106" s="33"/>
       <c r="L106" s="41"/>
       <c r="M106" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N106" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C107" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F107" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G107" s="34" t="s">
         <v>19</v>
@@ -6400,30 +6400,30 @@
       <c r="K107" s="33"/>
       <c r="L107" s="41"/>
       <c r="M107" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N107" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C108" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G108" s="34" t="s">
         <v>19</v>
@@ -6438,30 +6438,30 @@
       <c r="K108" s="33"/>
       <c r="L108" s="41"/>
       <c r="M108" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N108" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C109" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F109" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G109" s="34" t="s">
         <v>19</v>
@@ -6476,27 +6476,27 @@
       <c r="K109" s="33"/>
       <c r="L109" s="41"/>
       <c r="M109" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N109" s="20" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F110" s="34" t="s">
         <v>89</v>
@@ -6513,30 +6513,30 @@
       </c>
       <c r="K110" s="33"/>
       <c r="L110" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N110" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C111" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F111" s="34" t="s">
         <v>89</v>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="K111" s="33"/>
       <c r="L111" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F112" s="34" t="s">
         <v>89</v>
@@ -6593,30 +6593,30 @@
       </c>
       <c r="K112" s="33"/>
       <c r="L112" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N112" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B113" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="F113" s="34" t="s">
         <v>89</v>
@@ -6633,30 +6633,30 @@
       </c>
       <c r="K113" s="33"/>
       <c r="L113" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N113" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F114" s="34" t="s">
         <v>89</v>
@@ -6673,30 +6673,30 @@
       </c>
       <c r="K114" s="33"/>
       <c r="L114" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N114" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D115" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F115" s="34" t="s">
         <v>89</v>
@@ -6713,30 +6713,30 @@
       </c>
       <c r="K115" s="33"/>
       <c r="L115" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N115" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F116" s="34" t="s">
         <v>89</v>
@@ -6753,30 +6753,30 @@
       </c>
       <c r="K116" s="33"/>
       <c r="L116" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N116" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C117" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F117" s="34" t="s">
         <v>89</v>
@@ -6793,30 +6793,30 @@
       </c>
       <c r="K117" s="33"/>
       <c r="L117" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N117" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C118" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F118" s="34" t="s">
         <v>89</v>
@@ -6833,30 +6833,30 @@
       </c>
       <c r="K118" s="33"/>
       <c r="L118" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N118" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C119" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F119" s="34" t="s">
         <v>89</v>
@@ -6873,30 +6873,30 @@
       </c>
       <c r="K119" s="33"/>
       <c r="L119" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N119" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F120" s="34" t="s">
         <v>89</v>
@@ -6913,30 +6913,30 @@
       </c>
       <c r="K120" s="33"/>
       <c r="L120" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N120" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C121" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F121" s="34" t="s">
         <v>89</v>
@@ -6953,30 +6953,30 @@
       </c>
       <c r="K121" s="33"/>
       <c r="L121" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N121" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C122" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F122" s="34" t="s">
         <v>89</v>
@@ -6993,30 +6993,30 @@
       </c>
       <c r="K122" s="33"/>
       <c r="L122" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N122" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B123" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="F123" s="34" t="s">
         <v>89</v>
@@ -7033,30 +7033,30 @@
       </c>
       <c r="K123" s="33"/>
       <c r="L123" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N123" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F124" s="34" t="s">
         <v>89</v>
@@ -7073,30 +7073,30 @@
       </c>
       <c r="K124" s="33"/>
       <c r="L124" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N124" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F125" s="34" t="s">
         <v>89</v>
@@ -7113,30 +7113,30 @@
       </c>
       <c r="K125" s="33"/>
       <c r="L125" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N125" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F126" s="34" t="s">
         <v>89</v>
@@ -7153,30 +7153,30 @@
       </c>
       <c r="K126" s="33"/>
       <c r="L126" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N126" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C127" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D127" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F127" s="34" t="s">
         <v>89</v>
@@ -7193,30 +7193,30 @@
       </c>
       <c r="K127" s="33"/>
       <c r="L127" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N127" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C128" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D128" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F128" s="34" t="s">
         <v>89</v>
@@ -7233,30 +7233,30 @@
       </c>
       <c r="K128" s="33"/>
       <c r="L128" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N128" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C129" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D129" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F129" s="34" t="s">
         <v>89</v>
@@ -7273,30 +7273,30 @@
       </c>
       <c r="K129" s="33"/>
       <c r="L129" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N129" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C130" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D130" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F130" s="34" t="s">
         <v>89</v>
@@ -7313,30 +7313,30 @@
       </c>
       <c r="K130" s="33"/>
       <c r="L130" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N130" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C131" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D131" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F131" s="34" t="s">
         <v>89</v>
@@ -7353,30 +7353,30 @@
       </c>
       <c r="K131" s="33"/>
       <c r="L131" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N131" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C132" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D132" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F132" s="34" t="s">
         <v>89</v>
@@ -7393,30 +7393,30 @@
       </c>
       <c r="K132" s="33"/>
       <c r="L132" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N132" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B133" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="F133" s="34" t="s">
         <v>89</v>
@@ -7433,30 +7433,30 @@
       </c>
       <c r="K133" s="33"/>
       <c r="L133" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N133" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D134" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F134" s="34" t="s">
         <v>89</v>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="K134" s="33"/>
       <c r="L134" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N134" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D135" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F135" s="34" t="s">
         <v>89</v>
@@ -7513,30 +7513,30 @@
       </c>
       <c r="K135" s="33"/>
       <c r="L135" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N135" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D136" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F136" s="34" t="s">
         <v>89</v>
@@ -7553,30 +7553,30 @@
       </c>
       <c r="K136" s="33"/>
       <c r="L136" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N136" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C137" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F137" s="34" t="s">
         <v>89</v>
@@ -7593,30 +7593,30 @@
       </c>
       <c r="K137" s="33"/>
       <c r="L137" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N137" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D138" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F138" s="34" t="s">
         <v>89</v>
@@ -7633,30 +7633,30 @@
       </c>
       <c r="K138" s="33"/>
       <c r="L138" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N138" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C139" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D139" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F139" s="34" t="s">
         <v>89</v>
@@ -7673,30 +7673,30 @@
       </c>
       <c r="K139" s="33"/>
       <c r="L139" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N139" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C140" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D140" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F140" s="34" t="s">
         <v>89</v>
@@ -7713,30 +7713,30 @@
       </c>
       <c r="K140" s="33"/>
       <c r="L140" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N140" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C141" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D141" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E141" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F141" s="34" t="s">
         <v>89</v>
@@ -7753,30 +7753,30 @@
       </c>
       <c r="K141" s="33"/>
       <c r="L141" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N141" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C142" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D142" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E142" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F142" s="34" t="s">
         <v>89</v>
@@ -7793,30 +7793,30 @@
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N142" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B143" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E143" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="F143" s="34" t="s">
         <v>89</v>
@@ -7833,30 +7833,30 @@
       </c>
       <c r="K143" s="33"/>
       <c r="L143" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N143" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F144" s="34" t="s">
         <v>89</v>
@@ -7873,30 +7873,30 @@
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N144" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F145" s="34" t="s">
         <v>89</v>
@@ -7913,30 +7913,30 @@
       </c>
       <c r="K145" s="33"/>
       <c r="L145" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N145" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F146" s="34" t="s">
         <v>89</v>
@@ -7953,30 +7953,30 @@
       </c>
       <c r="K146" s="33"/>
       <c r="L146" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N146" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C147" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F147" s="34" t="s">
         <v>89</v>
@@ -7993,30 +7993,30 @@
       </c>
       <c r="K147" s="33"/>
       <c r="L147" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N147" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C148" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F148" s="34" t="s">
         <v>89</v>
@@ -8033,30 +8033,30 @@
       </c>
       <c r="K148" s="33"/>
       <c r="L148" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N148" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C149" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D149" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F149" s="34" t="s">
         <v>89</v>
@@ -8073,33 +8073,33 @@
       </c>
       <c r="K149" s="33"/>
       <c r="L149" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N149" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C150" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F150" s="34" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G150" s="34" t="s">
         <v>19</v>
@@ -8113,33 +8113,33 @@
       </c>
       <c r="K150" s="33"/>
       <c r="L150" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="N150" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C151" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F151" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G151" s="34" t="s">
         <v>19</v>
@@ -8159,24 +8159,24 @@
         <v>71</v>
       </c>
       <c r="N151" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C152" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F152" s="34" t="s">
         <v>89</v>
@@ -8193,30 +8193,30 @@
       </c>
       <c r="K152" s="33"/>
       <c r="L152" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N152" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C153" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F153" s="34" t="s">
         <v>89</v>
@@ -8233,30 +8233,30 @@
       </c>
       <c r="K153" s="33"/>
       <c r="L153" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N153" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C154" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D154" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F154" s="34" t="s">
         <v>89</v>
@@ -8273,30 +8273,30 @@
       </c>
       <c r="K154" s="33"/>
       <c r="L154" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N154" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C155" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D155" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F155" s="34" t="s">
         <v>89</v>
@@ -8313,30 +8313,30 @@
       </c>
       <c r="K155" s="33"/>
       <c r="L155" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N155" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C156" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D156" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F156" s="34" t="s">
         <v>89</v>
@@ -8353,30 +8353,30 @@
       </c>
       <c r="K156" s="33"/>
       <c r="L156" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N156" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C157" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D157" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F157" s="34" t="s">
         <v>89</v>
@@ -8393,30 +8393,30 @@
       </c>
       <c r="K157" s="33"/>
       <c r="L157" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N157" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C158" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D158" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F158" s="34" t="s">
         <v>89</v>
@@ -8433,33 +8433,33 @@
       </c>
       <c r="K158" s="33"/>
       <c r="L158" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N158" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C159" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D159" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F159" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G159" s="34" t="s">
         <v>19</v>
@@ -8476,30 +8476,30 @@
         <v>46</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C160" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D160" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F160" s="34" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G160" s="34" t="s">
         <v>19</v>
@@ -8516,30 +8516,30 @@
         <v>46</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N160" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C161" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D161" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F161" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G161" s="34" t="s">
         <v>19</v>
@@ -8556,30 +8556,30 @@
         <v>46</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N161" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C162" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F162" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G162" s="34" t="s">
         <v>19</v>
@@ -8596,30 +8596,30 @@
         <v>46</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N162" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C163" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F163" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G163" s="34" t="s">
         <v>19</v>
@@ -8636,24 +8636,24 @@
         <v>46</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N163" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C164" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="34" t="s">
@@ -8675,10 +8675,10 @@
         <v>46</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N164" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>800</v>
@@ -8686,19 +8686,19 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F165" s="34" t="s">
         <v>86</v>
@@ -8719,10 +8719,10 @@
         <v>46</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N165" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>1860</v>
@@ -8730,19 +8730,19 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E166" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F166" s="34" t="s">
         <v>86</v>
@@ -8763,10 +8763,10 @@
         <v>46</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N166" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>1360</v>
@@ -8774,19 +8774,19 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F167" s="34" t="s">
         <v>86</v>
@@ -8807,10 +8807,10 @@
         <v>46</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N167" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>1830</v>
@@ -8818,19 +8818,19 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F168" s="34" t="s">
         <v>86</v>
@@ -8851,10 +8851,10 @@
         <v>46</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N168" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q168">
         <v>1130</v>
@@ -8862,20 +8862,20 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C169" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G169" s="34" t="s">
         <v>19</v>
@@ -8892,30 +8892,30 @@
         <v>46</v>
       </c>
       <c r="M169" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N169" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G170" s="34" t="s">
         <v>19</v>
@@ -8932,30 +8932,30 @@
         <v>46</v>
       </c>
       <c r="M170" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N170" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G171" s="34" t="s">
         <v>19</v>
@@ -8972,30 +8972,30 @@
         <v>46</v>
       </c>
       <c r="M171" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N171" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G172" s="34" t="s">
         <v>19</v>
@@ -9012,30 +9012,30 @@
         <v>46</v>
       </c>
       <c r="M172" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N172" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G173" s="34" t="s">
         <v>19</v>
@@ -9052,28 +9052,28 @@
         <v>46</v>
       </c>
       <c r="M173" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N173" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C174" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G174" s="34" t="s">
         <v>19</v>
@@ -9090,30 +9090,30 @@
         <v>46</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N174" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G175" s="34" t="s">
         <v>19</v>
@@ -9130,30 +9130,30 @@
         <v>46</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N175" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G176" s="34" t="s">
         <v>19</v>
@@ -9170,30 +9170,30 @@
         <v>46</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N176" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G177" s="34" t="s">
         <v>19</v>
@@ -9210,30 +9210,30 @@
         <v>46</v>
       </c>
       <c r="M177" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N177" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F178" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G178" s="34" t="s">
         <v>19</v>
@@ -9250,24 +9250,24 @@
         <v>46</v>
       </c>
       <c r="M178" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N178" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="34" t="s">
@@ -9285,27 +9285,27 @@
       </c>
       <c r="K179" s="33"/>
       <c r="L179" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M179" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N179" s="20" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="34" t="s">
@@ -9323,27 +9323,27 @@
       </c>
       <c r="K180" s="33"/>
       <c r="L180" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M180" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N180" s="20" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="34" t="s">
@@ -9361,13 +9361,13 @@
       </c>
       <c r="K181" s="33"/>
       <c r="L181" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M181" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N181" s="20" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -12887,6 +12887,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -12901,11 +12906,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
